--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -188,38 +193,161 @@
     <t>80000000</t>
   </si>
   <si>
-    <t>40000000</t>
-  </si>
-  <si>
-    <t>150000000</t>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|开始vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|结束vip等级</t>
+  </si>
+  <si>
+    <t>max_once_award|最大的单笔奖励</t>
+  </si>
+  <si>
+    <r>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>300000000</t>
-  </si>
-  <si>
-    <t>model_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|开始vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|结束vip等级</t>
-  </si>
-  <si>
-    <t>max_once_award|最大的单笔奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>150000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,155 +359,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,198 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -599,251 +405,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -881,9 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,65 +466,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1250,41 +767,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C2:C8"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="2" max="5" width="28.1666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="28.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1295,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1309,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1323,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1337,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1347,15 +864,15 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1">
@@ -1365,53 +882,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1427,26 +943,26 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1463,40 +979,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="4" width="20.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.1666666666667" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.8333333333333" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="2" width="9" style="12"/>
+    <col min="3" max="4" width="20.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1515,248 +1030,247 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>12</v>
       </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13">
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>4</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>9</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>12</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>5</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>6</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="14">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>8</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>12</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.1666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1799,7 +1313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1822,7 +1336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1842,7 +1356,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1862,7 +1376,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1882,7 +1396,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1905,7 +1419,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1925,7 +1439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1945,7 +1459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1965,7 +1479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1988,7 +1502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2005,7 +1519,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2022,7 +1536,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2039,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2059,7 +1573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2076,7 +1590,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2093,7 +1607,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2110,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2130,7 +1644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2147,7 +1661,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2164,7 +1678,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2181,17 +1695,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:7">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10">
         <v>7</v>
       </c>
-      <c r="C23" s="10">
-        <v>50000000</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="10">
@@ -2202,7 +1716,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:7">
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2210,18 +1724,18 @@
         <v>7</v>
       </c>
       <c r="C24" s="10">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E24" s="10">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:7">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2229,18 +1743,18 @@
         <v>7</v>
       </c>
       <c r="C25" s="10">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E25" s="10">
-        <v>0.9025</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:7">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -2251,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <v>0.95</v>
@@ -2259,17 +1773,17 @@
       <c r="F26" s="9"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:7">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10">
         <v>8</v>
       </c>
-      <c r="C27" s="10">
-        <v>100000000</v>
-      </c>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="10">
@@ -2280,45 +1794,45 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:7">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="10">
         <v>8</v>
       </c>
-      <c r="C28" s="10">
-        <v>40000000</v>
+      <c r="C28" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:7">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10">
         <v>8</v>
       </c>
-      <c r="C29" s="10">
-        <v>20000000</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>56</v>
+      <c r="C29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E29" s="10">
-        <v>0.9025</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:7">
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2328,8 +1842,8 @@
       <c r="C30" s="10">
         <v>0</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>36</v>
+      <c r="D30" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="10">
         <v>0.95</v>
@@ -2337,7 +1851,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:7">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2345,9 +1859,9 @@
         <v>9</v>
       </c>
       <c r="C31" s="10">
-        <v>150000000</v>
-      </c>
-      <c r="D31" s="19" t="s">
+        <v>1500000000</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="10">
@@ -2358,7 +1872,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:7">
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2366,18 +1880,18 @@
         <v>9</v>
       </c>
       <c r="C32" s="10">
-        <v>60000000</v>
+        <v>600000000</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E32" s="10">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:7">
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -2385,18 +1899,18 @@
         <v>9</v>
       </c>
       <c r="C33" s="10">
-        <v>30000000</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>49</v>
+        <v>300000000</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E33" s="10">
-        <v>0.9025</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:7">
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2406,8 +1920,8 @@
       <c r="C34" s="10">
         <v>0</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>50</v>
+      <c r="D34" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E34" s="10">
         <v>0.95</v>
@@ -2415,7 +1929,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:7">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -2423,9 +1937,9 @@
         <v>10</v>
       </c>
       <c r="C35" s="10">
-        <v>300000000</v>
-      </c>
-      <c r="D35" s="19" t="s">
+        <v>3000000000</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="10">
@@ -2436,7 +1950,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:7">
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2444,18 +1958,18 @@
         <v>10</v>
       </c>
       <c r="C36" s="10">
-        <v>120000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E36" s="10">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:7">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -2463,18 +1977,18 @@
         <v>10</v>
       </c>
       <c r="C37" s="10">
-        <v>50000000</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>48</v>
+        <v>500000000</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E37" s="10">
-        <v>0.9025</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:7">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2484,8 +1998,8 @@
       <c r="C38" s="10">
         <v>0</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>53</v>
+      <c r="D38" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E38" s="10">
         <v>0.95</v>
@@ -2493,7 +2007,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:7">
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -2501,9 +2015,9 @@
         <v>11</v>
       </c>
       <c r="C39" s="10">
-        <v>300000000</v>
-      </c>
-      <c r="D39" s="19" t="s">
+        <v>3000000000</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="10">
@@ -2514,7 +2028,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:7">
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -2522,18 +2036,18 @@
         <v>11</v>
       </c>
       <c r="C40" s="10">
-        <v>120000000</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>58</v>
+        <v>1200000000</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="E40" s="10">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:7">
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -2541,18 +2055,18 @@
         <v>11</v>
       </c>
       <c r="C41" s="10">
-        <v>80000000</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>48</v>
+        <v>800000000</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E41" s="10">
-        <v>0.9025</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:7">
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -2562,8 +2076,8 @@
       <c r="C42" s="10">
         <v>0</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>55</v>
+      <c r="D42" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="E42" s="10">
         <v>0.95</v>
@@ -2572,52 +2086,51 @@
       <c r="G42" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2634,7 +2147,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2651,7 +2164,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2668,7 +2181,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2685,7 +2198,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2702,7 +2215,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2719,7 +2232,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2736,7 +2249,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2753,7 +2266,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2770,7 +2283,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2787,7 +2300,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2805,7 +2318,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -91,9 +91,6 @@
     <t>max_award_deal_id</t>
   </si>
   <si>
-    <t>drt_clby_little_game_discount</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -205,141 +202,7 @@
     <t>max_once_award|最大的单笔奖励</t>
   </si>
   <si>
-    <r>
-      <t>1000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>150000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>300000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000000</t>
+    <t>drt_cjj_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,9 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,9 +324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,17 +644,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -864,7 +721,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -872,7 +729,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1">
@@ -913,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,22 +800,22 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="14">
         <v>3</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -998,17 +855,17 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="12"/>
-    <col min="3" max="4" width="20.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="2" width="9" style="11"/>
+    <col min="3" max="4" width="20.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -1016,204 +873,204 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
         <v>12</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>6</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>6</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>7</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>8</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>9</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1255,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1275,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1304,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1324,13 +1181,13 @@
         <v>20000000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
@@ -1347,7 +1204,7 @@
         <v>5000000</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1367,7 +1224,7 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>0.95</v>
@@ -1387,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1407,13 +1264,13 @@
         <v>100000000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1430,13 +1287,13 @@
         <v>35000000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1450,13 +1307,13 @@
         <v>15000000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>0.95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1470,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1490,16 +1347,16 @@
         <v>120000000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1513,7 +1370,7 @@
         <v>60000000</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
@@ -1530,7 +1387,7 @@
         <v>30000000</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1">
         <v>0.95</v>
@@ -1547,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1564,13 +1421,13 @@
         <v>200000000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1584,7 +1441,7 @@
         <v>100000000</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1601,7 +1458,7 @@
         <v>50000000</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1">
         <v>0.95</v>
@@ -1618,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1635,13 +1492,13 @@
         <v>200000000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1652,10 +1509,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>0.9</v>
@@ -1669,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>0.95</v>
@@ -1689,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1702,17 +1559,17 @@
       <c r="B23" s="10">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>34</v>
+      <c r="C23" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="10">
         <v>0.76</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1723,11 +1580,11 @@
       <c r="B24" s="10">
         <v>7</v>
       </c>
-      <c r="C24" s="10">
-        <v>50000000</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>62</v>
+      <c r="C24" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="10">
         <v>0.85499999999999998</v>
@@ -1742,11 +1599,11 @@
       <c r="B25" s="10">
         <v>7</v>
       </c>
-      <c r="C25" s="10">
-        <v>10000000</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>61</v>
+      <c r="C25" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="10">
         <v>0.90249999999999997</v>
@@ -1761,11 +1618,11 @@
       <c r="B26" s="10">
         <v>7</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>60</v>
+      <c r="D26" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E26" s="10">
         <v>0.95</v>
@@ -1780,17 +1637,17 @@
       <c r="B27" s="10">
         <v>8</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>34</v>
+      <c r="C27" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E27" s="10">
         <v>0.76</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1801,11 +1658,11 @@
       <c r="B28" s="10">
         <v>8</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>63</v>
+      <c r="C28" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E28" s="10">
         <v>0.85499999999999998</v>
@@ -1820,11 +1677,11 @@
       <c r="B29" s="10">
         <v>8</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>65</v>
+      <c r="C29" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E29" s="10">
         <v>0.90249999999999997</v>
@@ -1839,11 +1696,11 @@
       <c r="B30" s="10">
         <v>8</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>64</v>
+      <c r="D30" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E30" s="10">
         <v>0.95</v>
@@ -1858,17 +1715,17 @@
       <c r="B31" s="10">
         <v>9</v>
       </c>
-      <c r="C31" s="10">
-        <v>1500000000</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>34</v>
+      <c r="C31" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E31" s="10">
         <v>0.76</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1879,11 +1736,11 @@
       <c r="B32" s="10">
         <v>9</v>
       </c>
-      <c r="C32" s="10">
-        <v>600000000</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>68</v>
+      <c r="C32" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="10">
         <v>0.85499999999999998</v>
@@ -1898,11 +1755,11 @@
       <c r="B33" s="10">
         <v>9</v>
       </c>
-      <c r="C33" s="10">
-        <v>300000000</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>67</v>
+      <c r="C33" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E33" s="10">
         <v>0.90249999999999997</v>
@@ -1917,11 +1774,11 @@
       <c r="B34" s="10">
         <v>9</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>66</v>
+      <c r="D34" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E34" s="10">
         <v>0.95</v>
@@ -1936,17 +1793,17 @@
       <c r="B35" s="10">
         <v>10</v>
       </c>
-      <c r="C35" s="10">
-        <v>3000000000</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>34</v>
+      <c r="C35" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E35" s="10">
         <v>0.76</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1957,11 +1814,11 @@
       <c r="B36" s="10">
         <v>10</v>
       </c>
-      <c r="C36" s="10">
-        <v>1200000000</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>71</v>
+      <c r="C36" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="10">
         <v>0.85499999999999998</v>
@@ -1976,11 +1833,11 @@
       <c r="B37" s="10">
         <v>10</v>
       </c>
-      <c r="C37" s="10">
-        <v>500000000</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>70</v>
+      <c r="C37" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="10">
         <v>0.90249999999999997</v>
@@ -1995,11 +1852,11 @@
       <c r="B38" s="10">
         <v>10</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>69</v>
+      <c r="D38" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E38" s="10">
         <v>0.95</v>
@@ -2014,17 +1871,17 @@
       <c r="B39" s="10">
         <v>11</v>
       </c>
-      <c r="C39" s="10">
-        <v>3000000000</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>34</v>
+      <c r="C39" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E39" s="10">
         <v>0.76</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2035,11 +1892,11 @@
       <c r="B40" s="10">
         <v>11</v>
       </c>
-      <c r="C40" s="10">
-        <v>1200000000</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>74</v>
+      <c r="C40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="10">
         <v>0.85499999999999998</v>
@@ -2054,11 +1911,11 @@
       <c r="B41" s="10">
         <v>11</v>
       </c>
-      <c r="C41" s="10">
-        <v>800000000</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>73</v>
+      <c r="C41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E41" s="10">
         <v>0.90249999999999997</v>
@@ -2073,11 +1930,11 @@
       <c r="B42" s="10">
         <v>11</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="1">
         <v>0</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>72</v>
+      <c r="D42" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E42" s="10">
         <v>0.95</v>
@@ -2114,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -58,151 +58,156 @@
     <t>vip_set2</t>
   </si>
   <si>
+    <t>default_set</t>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+  </si>
+  <si>
+    <t>为空不处理</t>
+  </si>
+  <si>
+    <t>游戏类型</t>
+  </si>
+  <si>
+    <t>zjd_award</t>
+  </si>
+  <si>
+    <t>by_award</t>
+  </si>
+  <si>
+    <t>model_id|模式id</t>
+  </si>
+  <si>
+    <t>permission_key</t>
+  </si>
+  <si>
+    <t>vip_deal_id|启用类型</t>
+  </si>
+  <si>
+    <t>max_award_deal_id</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>set_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|vip等级</t>
+  </si>
+  <si>
+    <t>module_id</t>
+  </si>
+  <si>
+    <t>start_value|起始赢金值&gt;</t>
+  </si>
+  <si>
+    <t>end_value|结束赢金值&lt;=</t>
+  </si>
+  <si>
+    <t>discount|折扣</t>
+  </si>
+  <si>
+    <t>|VIP等级</t>
+  </si>
+  <si>
+    <t>|vip充值</t>
+  </si>
+  <si>
+    <t>999999999999</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>vip0-2</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>vip3-4</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>vip7 1万</t>
+  </si>
+  <si>
+    <t>35000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip8 2万 </t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip9 3万 </t>
+  </si>
+  <si>
+    <t>vip5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip10  5万 </t>
+  </si>
+  <si>
+    <t>120000000</t>
+  </si>
+  <si>
+    <t>60000000</t>
+  </si>
+  <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>vip7-8</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>vip9-12</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|开始vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|结束vip等级</t>
+  </si>
+  <si>
+    <t>max_once_award|最大的单笔奖励</t>
+  </si>
+  <si>
+    <t>drt_cjj_little_game_discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>xxl_caishen_award</t>
-  </si>
-  <si>
-    <t>default_set</t>
-  </si>
-  <si>
-    <t>tantanle_award</t>
-  </si>
-  <si>
-    <t>为空不处理</t>
-  </si>
-  <si>
-    <t>游戏类型</t>
-  </si>
-  <si>
-    <t>zjd_award</t>
-  </si>
-  <si>
-    <t>by_award</t>
-  </si>
-  <si>
-    <t>model_id|模式id</t>
-  </si>
-  <si>
-    <t>permission_key</t>
-  </si>
-  <si>
-    <t>vip_deal_id|启用类型</t>
-  </si>
-  <si>
-    <t>max_award_deal_id</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>set_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|vip等级</t>
-  </si>
-  <si>
-    <t>module_id</t>
-  </si>
-  <si>
-    <t>start_value|起始赢金值&gt;</t>
-  </si>
-  <si>
-    <t>end_value|结束赢金值&lt;=</t>
-  </si>
-  <si>
-    <t>discount|折扣</t>
-  </si>
-  <si>
-    <t>|VIP等级</t>
-  </si>
-  <si>
-    <t>|vip充值</t>
-  </si>
-  <si>
-    <t>999999999999</t>
-  </si>
-  <si>
-    <t>1000000000000</t>
-  </si>
-  <si>
-    <t>vip0-2</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>vip3-4</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>vip7 1万</t>
-  </si>
-  <si>
-    <t>35000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip8 2万 </t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip9 3万 </t>
-  </si>
-  <si>
-    <t>vip5-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip10  5万 </t>
-  </si>
-  <si>
-    <t>120000000</t>
-  </si>
-  <si>
-    <t>60000000</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>vip7-8</t>
-  </si>
-  <si>
-    <t>200000000</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>vip9-12</t>
-  </si>
-  <si>
-    <t>80000000</t>
-  </si>
-  <si>
-    <t>model_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|开始vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|结束vip等级</t>
-  </si>
-  <si>
-    <t>max_once_award|最大的单笔奖励</t>
-  </si>
-  <si>
-    <t>drt_cjj_little_game_discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_xiyou_award</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,13 +721,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -730,18 +735,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -751,12 +767,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -789,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="13"/>
     </row>
@@ -810,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="14">
         <v>3</v>
@@ -827,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -873,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1132,22 +1148,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1161,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1181,13 +1197,13 @@
         <v>20000000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
@@ -1204,7 +1220,7 @@
         <v>5000000</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1224,7 +1240,7 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>0.95</v>
@@ -1244,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1264,13 +1280,13 @@
         <v>100000000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1287,13 +1303,13 @@
         <v>35000000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1307,13 +1323,13 @@
         <v>15000000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1">
         <v>0.95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1327,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1347,16 +1363,16 @@
         <v>120000000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1370,7 +1386,7 @@
         <v>60000000</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
@@ -1387,7 +1403,7 @@
         <v>30000000</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1">
         <v>0.95</v>
@@ -1404,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1421,13 +1437,13 @@
         <v>200000000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1441,7 +1457,7 @@
         <v>100000000</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1458,7 +1474,7 @@
         <v>50000000</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1">
         <v>0.95</v>
@@ -1475,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1492,13 +1508,13 @@
         <v>200000000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1509,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1">
         <v>0.9</v>
@@ -1526,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1">
         <v>0.95</v>
@@ -1546,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1563,13 +1579,13 @@
         <v>20000000</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="10">
         <v>0.76</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1584,7 +1600,7 @@
         <v>5000000</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="10">
         <v>0.85499999999999998</v>
@@ -1603,7 +1619,7 @@
         <v>1000000</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="10">
         <v>0.90249999999999997</v>
@@ -1622,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="10">
         <v>0.95</v>
@@ -1641,13 +1657,13 @@
         <v>100000000</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="10">
         <v>0.76</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1662,7 +1678,7 @@
         <v>35000000</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="10">
         <v>0.85499999999999998</v>
@@ -1681,7 +1697,7 @@
         <v>15000000</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="10">
         <v>0.90249999999999997</v>
@@ -1700,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="10">
         <v>0.95</v>
@@ -1719,13 +1735,13 @@
         <v>120000000</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="10">
         <v>0.76</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1740,7 +1756,7 @@
         <v>60000000</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="10">
         <v>0.85499999999999998</v>
@@ -1759,7 +1775,7 @@
         <v>30000000</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="10">
         <v>0.90249999999999997</v>
@@ -1778,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="10">
         <v>0.95</v>
@@ -1797,13 +1813,13 @@
         <v>200000000</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="10">
         <v>0.76</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1818,7 +1834,7 @@
         <v>100000000</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="10">
         <v>0.85499999999999998</v>
@@ -1837,7 +1853,7 @@
         <v>50000000</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="10">
         <v>0.90249999999999997</v>
@@ -1856,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="10">
         <v>0.95</v>
@@ -1875,13 +1891,13 @@
         <v>200000000</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="10">
         <v>0.76</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1893,10 +1909,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="10">
         <v>0.85499999999999998</v>
@@ -1912,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="10">
         <v>0.90249999999999997</v>
@@ -1934,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="10">
         <v>0.95</v>
@@ -1971,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="deal_model" sheetId="5" r:id="rId4"/>
     <sheet name="max_award_model" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -265,12 +265,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -279,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,12 +322,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -329,6 +338,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,17 +673,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -726,7 +750,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -734,7 +758,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1">
@@ -787,7 +811,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,22 +840,22 @@
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>3</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
     </row>
@@ -871,17 +895,17 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="11"/>
-    <col min="3" max="4" width="20.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="4" width="20.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,189 +928,189 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>12</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>4</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>8</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>9</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>6</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>9</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>12</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>11</v>
       </c>
     </row>
@@ -1126,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,7 +1167,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1229,7 +1253,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1249,7 +1273,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1269,7 +1293,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1292,7 +1316,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1312,7 +1336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1332,7 +1356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1351,8 +1375,9 @@
       <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1375,7 +1400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1392,7 +1417,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1409,7 +1434,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1426,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1446,7 +1471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1463,7 +1488,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1480,7 +1505,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1497,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1517,7 +1542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1534,7 +1559,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1551,7 +1576,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1568,400 +1593,427 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="16">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="15">
         <v>20000000</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="16">
         <v>0.76</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="16">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="15">
         <v>5000000</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="16">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="15">
         <v>1000000</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="16">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="15">
         <v>0</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15">
+        <v>100000000</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15">
+        <v>35000000</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16">
+        <v>8</v>
+      </c>
+      <c r="C29" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16">
+        <v>8</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15">
+        <v>120000000</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16">
+        <v>9</v>
+      </c>
+      <c r="C32" s="15">
+        <v>60000000</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16">
+        <v>9</v>
+      </c>
+      <c r="C33" s="15">
+        <v>30000000</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16">
+        <v>9</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="16">
         <v>0.95</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="F34" s="18"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16">
+        <v>10</v>
+      </c>
+      <c r="C36" s="15">
         <v>100000000</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15">
+        <v>50000000</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16">
+        <v>10</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
+        <v>11</v>
+      </c>
+      <c r="C39" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E39" s="16">
         <v>0.76</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
-        <v>35000000</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="F39" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16">
+        <v>11</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>15000000</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="E29" s="10">
+      <c r="B41" s="16">
+        <v>11</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="F41" s="18"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16">
+        <v>11</v>
+      </c>
+      <c r="C42" s="15">
         <v>0</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="16">
         <v>0.95</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1">
-        <v>60000000</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1">
-        <v>30000000</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
-        <v>200000000</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>200000000</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10">
-        <v>11</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10">
-        <v>11</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -46,168 +46,186 @@
     <t>启用类型</t>
   </si>
   <si>
+    <t>vip_set</t>
+  </si>
+  <si>
+    <t>xxl_shuihu_award</t>
+  </si>
+  <si>
+    <t>vip_set2</t>
+  </si>
+  <si>
+    <t>default_set</t>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+  </si>
+  <si>
+    <t>为空不处理</t>
+  </si>
+  <si>
+    <t>游戏类型</t>
+  </si>
+  <si>
+    <t>zjd_award</t>
+  </si>
+  <si>
+    <t>by_award</t>
+  </si>
+  <si>
+    <t>model_id|模式id</t>
+  </si>
+  <si>
+    <t>permission_key</t>
+  </si>
+  <si>
+    <t>vip_deal_id|启用类型</t>
+  </si>
+  <si>
+    <t>max_award_deal_id</t>
+  </si>
+  <si>
+    <t>set_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|vip等级</t>
+  </si>
+  <si>
+    <t>module_id</t>
+  </si>
+  <si>
+    <t>start_value|起始赢金值&gt;</t>
+  </si>
+  <si>
+    <t>end_value|结束赢金值&lt;=</t>
+  </si>
+  <si>
+    <t>discount|折扣</t>
+  </si>
+  <si>
+    <t>|VIP等级</t>
+  </si>
+  <si>
+    <t>|vip充值</t>
+  </si>
+  <si>
+    <t>999999999999</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>vip0-2</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>vip3-4</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>vip7 1万</t>
+  </si>
+  <si>
+    <t>35000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip8 2万 </t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip9 3万 </t>
+  </si>
+  <si>
+    <t>vip5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip10  5万 </t>
+  </si>
+  <si>
+    <t>120000000</t>
+  </si>
+  <si>
+    <t>60000000</t>
+  </si>
+  <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>vip7-8</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>vip9-12</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|开始vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|结束vip等级</t>
+  </si>
+  <si>
+    <t>max_once_award|最大的单笔奖励</t>
+  </si>
+  <si>
+    <t>xxl_caishen_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_xiyou_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_sanguo_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>buyu_award</t>
-  </si>
-  <si>
-    <t>vip_set</t>
-  </si>
-  <si>
-    <t>xxl_shuihu_award</t>
-  </si>
-  <si>
-    <t>vip_set2</t>
-  </si>
-  <si>
-    <t>default_set</t>
-  </si>
-  <si>
-    <t>tantanle_award</t>
-  </si>
-  <si>
-    <t>为空不处理</t>
-  </si>
-  <si>
-    <t>游戏类型</t>
-  </si>
-  <si>
-    <t>zjd_award</t>
-  </si>
-  <si>
-    <t>by_award</t>
-  </si>
-  <si>
-    <t>model_id|模式id</t>
-  </si>
-  <si>
-    <t>permission_key</t>
-  </si>
-  <si>
-    <t>vip_deal_id|启用类型</t>
-  </si>
-  <si>
-    <t>max_award_deal_id</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>set_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|vip等级</t>
-  </si>
-  <si>
-    <t>module_id</t>
-  </si>
-  <si>
-    <t>start_value|起始赢金值&gt;</t>
-  </si>
-  <si>
-    <t>end_value|结束赢金值&lt;=</t>
-  </si>
-  <si>
-    <t>discount|折扣</t>
-  </si>
-  <si>
-    <t>|VIP等级</t>
-  </si>
-  <si>
-    <t>|vip充值</t>
-  </si>
-  <si>
-    <t>999999999999</t>
-  </si>
-  <si>
-    <t>1000000000000</t>
-  </si>
-  <si>
-    <t>vip0-2</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>vip3-4</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>vip7 1万</t>
-  </si>
-  <si>
-    <t>35000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip8 2万 </t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip9 3万 </t>
-  </si>
-  <si>
-    <t>vip5-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip10  5万 </t>
-  </si>
-  <si>
-    <t>120000000</t>
-  </si>
-  <si>
-    <t>60000000</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>vip7-8</t>
-  </si>
-  <si>
-    <t>200000000</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>vip9-12</t>
-  </si>
-  <si>
-    <t>80000000</t>
-  </si>
-  <si>
-    <t>model_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|开始vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|结束vip等级</t>
-  </si>
-  <si>
-    <t>max_once_award|最大的单笔奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>drt_cjj_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xxl_caishen_award</t>
+    <t>drt_hlby_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xxl_xiyou_award</t>
+    <t>drt_byam_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +368,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +686,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -731,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -745,13 +769,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -759,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -773,30 +797,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="11"/>
     </row>
@@ -850,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="12">
         <v>3</v>
@@ -860,29 +902,63 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -894,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1114,46 +1190,132 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,30 +1329,30 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1201,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1210,7 +1372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1221,19 +1383,19 @@
         <v>20000000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1244,7 +1406,7 @@
         <v>5000000</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1253,7 +1415,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1264,7 +1426,7 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>0.95</v>
@@ -1273,7 +1435,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1284,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1293,7 +1455,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1304,19 +1466,19 @@
         <v>100000000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1327,16 +1489,16 @@
         <v>35000000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1347,16 +1509,16 @@
         <v>15000000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>0.95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1367,17 +1529,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1388,19 +1549,19 @@
         <v>120000000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1411,13 +1572,13 @@
         <v>60000000</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1428,13 +1589,13 @@
         <v>30000000</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1445,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1462,16 +1623,16 @@
         <v>200000000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1482,7 +1643,7 @@
         <v>100000000</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1499,7 +1660,7 @@
         <v>50000000</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1">
         <v>0.95</v>
@@ -1516,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1533,13 +1694,13 @@
         <v>200000000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1550,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>0.9</v>
@@ -1567,10 +1728,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
         <v>0.95</v>
@@ -1587,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1604,13 +1765,14 @@
         <v>20000000</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>33</v>
+        <f>E3*0.9</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1626,12 +1788,13 @@
         <v>5000000</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F24" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" ref="E24:E62" si="0">E4*0.9</f>
+        <v>0.81</v>
+      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1646,12 +1809,13 @@
         <v>1000000</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F25" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F25" s="21"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -1666,12 +1830,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="16">
+        <v>34</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -1686,13 +1851,14 @@
         <v>100000000</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1708,12 +1874,13 @@
         <v>35000000</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F28" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="F28" s="21"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1728,12 +1895,13 @@
         <v>15000000</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F29" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F29" s="21"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1748,12 +1916,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="16">
+        <v>40</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1768,13 +1937,14 @@
         <v>120000000</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1790,12 +1960,13 @@
         <v>60000000</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F32" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="E32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="F32" s="21"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1810,12 +1981,13 @@
         <v>30000000</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="16">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F33" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F33" s="21"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -1830,12 +2002,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="F34" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="21"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -1850,13 +2023,14 @@
         <v>200000000</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1872,12 +2046,13 @@
         <v>100000000</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F36" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="F36" s="21"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1892,12 +2067,13 @@
         <v>50000000</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F37" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F37" s="21"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1912,12 +2088,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="F38" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F38" s="21"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -1932,13 +2109,14 @@
         <v>200000000</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1951,15 +2129,16 @@
         <v>11</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="16">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F40" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="F40" s="21"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -1971,15 +2150,16 @@
         <v>11</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="16">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F41" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F41" s="21"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -1994,17 +2174,453 @@
         <v>0</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="F42" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F42" s="21"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20">
+        <v>12</v>
+      </c>
+      <c r="C43" s="15">
+        <v>20000000</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="20">
+        <f>E3*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20">
+        <v>12</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5000000</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="20">
+        <f t="shared" ref="E44:E62" si="1">E4*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20">
+        <v>12</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20">
+        <v>12</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20">
+        <v>13</v>
+      </c>
+      <c r="C47" s="15">
+        <v>100000000</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20">
+        <v>13</v>
+      </c>
+      <c r="C48" s="15">
+        <v>35000000</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="20">
+        <v>13</v>
+      </c>
+      <c r="C49" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="20">
+        <v>13</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="20">
+        <v>14</v>
+      </c>
+      <c r="C51" s="15">
+        <v>120000000</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="20">
+        <v>14</v>
+      </c>
+      <c r="C52" s="15">
+        <v>60000000</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="20">
+        <v>14</v>
+      </c>
+      <c r="C53" s="15">
+        <v>30000000</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20">
+        <v>14</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20">
+        <v>15</v>
+      </c>
+      <c r="C55" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="20">
+        <v>15</v>
+      </c>
+      <c r="C56" s="15">
+        <v>100000000</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20">
+        <v>15</v>
+      </c>
+      <c r="C57" s="15">
+        <v>50000000</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="20">
+        <v>15</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="20">
+        <v>16</v>
+      </c>
+      <c r="C59" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="20">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="20">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="20">
+        <v>16</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
@@ -2039,16 +2655,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,7 +811,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,7 +1609,7 @@
       <c r="E23" s="16">
         <v>0.76</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1"/>
@@ -1625,13 +1625,13 @@
       <c r="C24" s="15">
         <v>5000000</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1645,13 +1645,13 @@
       <c r="C25" s="15">
         <v>1000000</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -1665,13 +1665,13 @@
       <c r="C26" s="15">
         <v>0</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="16">
         <v>0.9</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -1691,7 +1691,7 @@
       <c r="E27" s="16">
         <v>0.76</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="1"/>
@@ -1707,13 +1707,13 @@
       <c r="C28" s="15">
         <v>35000000</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1727,13 +1727,13 @@
       <c r="C29" s="15">
         <v>15000000</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1747,13 +1747,13 @@
       <c r="C30" s="15">
         <v>0</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="16">
         <v>0.9</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="E31" s="16">
         <v>0.76</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G31" s="1"/>
@@ -1789,13 +1789,13 @@
       <c r="C32" s="15">
         <v>60000000</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1809,13 +1809,13 @@
       <c r="C33" s="15">
         <v>30000000</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -1829,13 +1829,13 @@
       <c r="C34" s="15">
         <v>0</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="16">
         <v>0.95</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="E35" s="16">
         <v>0.76</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G35" s="1"/>
@@ -1871,13 +1871,13 @@
       <c r="C36" s="15">
         <v>100000000</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1891,13 +1891,13 @@
       <c r="C37" s="15">
         <v>50000000</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1911,13 +1911,13 @@
       <c r="C38" s="15">
         <v>0</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="16">
         <v>0.95</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="E39" s="16">
         <v>0.76</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G39" s="1"/>
@@ -1950,16 +1950,16 @@
       <c r="B40" s="16">
         <v>11</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="16">
         <v>0.85499999999999998</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -1970,16 +1970,16 @@
       <c r="B41" s="16">
         <v>11</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="16">
         <v>0.90249999999999997</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -1993,13 +1993,13 @@
       <c r="C42" s="15">
         <v>0</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="16">
         <v>0.95</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,9 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,7 +379,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,7 +986,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1755,432 +1770,432 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="21">
         <v>7</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="20">
         <v>20000000</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="16">
-        <f>E3*0.9</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="21">
+        <f>E3*0.85</f>
+        <v>0.68</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="21">
         <v>7</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="20">
         <v>5000000</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="19">
-        <f t="shared" ref="E24:E62" si="0">E4*0.9</f>
-        <v>0.81</v>
-      </c>
-      <c r="F24" s="21"/>
+      <c r="E24" s="21">
+        <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="21">
         <v>7</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="20">
         <v>1000000</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F25" s="21"/>
+        <v>0.8075</v>
+      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="21">
         <v>7</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="20">
         <v>0</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F26" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="21">
         <v>8</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="20">
         <v>100000000</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F27" s="21" t="s">
+        <v>0.68</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="21">
         <v>8</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="20">
         <v>35000000</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="F28" s="21"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F28" s="23"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="21">
         <v>8</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="20">
         <v>15000000</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F29" s="21"/>
+        <v>0.8075</v>
+      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="21">
         <v>8</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="20">
         <v>0</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F30" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="21">
         <v>9</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="20">
         <v>120000000</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F31" s="21" t="s">
+        <v>0.68</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="21">
         <v>9</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="20">
         <v>60000000</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="F32" s="21"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F32" s="23"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="21">
         <v>9</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="20">
         <v>30000000</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F33" s="21"/>
+        <v>0.8075</v>
+      </c>
+      <c r="F33" s="23"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="21">
         <v>9</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="20">
         <v>0</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="F34" s="23"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="21">
         <v>10</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="20">
         <v>200000000</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F35" s="21" t="s">
+        <v>0.68</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="21">
         <v>10</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="20">
         <v>100000000</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="21">
         <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="F36" s="21"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F36" s="23"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="21">
         <v>10</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="20">
         <v>50000000</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="21">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F37" s="21"/>
+        <v>0.8075</v>
+      </c>
+      <c r="F37" s="23"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="21">
         <v>10</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="20">
         <v>0</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F38" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="F38" s="23"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="21">
         <v>11</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="20">
         <v>200000000</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="21">
         <f t="shared" si="0"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F39" s="21" t="s">
+        <v>0.68</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="21">
         <v>11</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="21">
         <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="F40" s="21"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F40" s="23"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="21">
         <v>11</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F41" s="21"/>
+        <v>0.8075</v>
+      </c>
+      <c r="F41" s="23"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15">
+      <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="21">
         <v>11</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="20">
         <v>0</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="21">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F42" s="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="F42" s="23"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2188,20 +2203,20 @@
       <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="18">
         <v>12</v>
       </c>
       <c r="C43" s="15">
         <v>20000000</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <f>E3*0.95</f>
         <v>0.76</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="1"/>
@@ -2211,20 +2226,20 @@
       <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="18">
         <v>12</v>
       </c>
       <c r="C44" s="15">
         <v>5000000</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <f t="shared" ref="E44:E62" si="1">E4*0.95</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2232,20 +2247,20 @@
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="18">
         <v>12</v>
       </c>
       <c r="C45" s="15">
         <v>1000000</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <f t="shared" si="1"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2253,20 +2268,20 @@
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="18">
         <v>12</v>
       </c>
       <c r="C46" s="15">
         <v>0</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F46" s="21"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2274,20 +2289,20 @@
       <c r="A47" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="18">
         <v>13</v>
       </c>
       <c r="C47" s="15">
         <v>100000000</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="1"/>
@@ -2297,20 +2312,20 @@
       <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>13</v>
       </c>
       <c r="C48" s="15">
         <v>35000000</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F48" s="21"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2318,20 +2333,20 @@
       <c r="A49" s="15">
         <v>48</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="18">
         <v>13</v>
       </c>
       <c r="C49" s="15">
         <v>15000000</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <f t="shared" si="1"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="F49" s="21"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -2339,20 +2354,20 @@
       <c r="A50" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="18">
         <v>13</v>
       </c>
       <c r="C50" s="15">
         <v>0</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2360,20 +2375,20 @@
       <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>14</v>
       </c>
       <c r="C51" s="15">
         <v>120000000</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="19" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="1"/>
@@ -2383,20 +2398,20 @@
       <c r="A52" s="15">
         <v>51</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="18">
         <v>14</v>
       </c>
       <c r="C52" s="15">
         <v>60000000</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F52" s="21"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -2404,20 +2419,20 @@
       <c r="A53" s="15">
         <v>52</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="18">
         <v>14</v>
       </c>
       <c r="C53" s="15">
         <v>30000000</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <f t="shared" si="1"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="F53" s="21"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -2425,20 +2440,20 @@
       <c r="A54" s="15">
         <v>53</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="18">
         <v>14</v>
       </c>
       <c r="C54" s="15">
         <v>0</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F54" s="21"/>
+      <c r="F54" s="19"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -2446,20 +2461,20 @@
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="18">
         <v>15</v>
       </c>
       <c r="C55" s="15">
         <v>200000000</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G55" s="1"/>
@@ -2469,20 +2484,20 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="18">
         <v>15</v>
       </c>
       <c r="C56" s="15">
         <v>100000000</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F56" s="21"/>
+      <c r="F56" s="19"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2490,20 +2505,20 @@
       <c r="A57" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="18">
         <v>15</v>
       </c>
       <c r="C57" s="15">
         <v>50000000</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="18">
         <f t="shared" si="1"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="F57" s="21"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2511,20 +2526,20 @@
       <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="18">
         <v>15</v>
       </c>
       <c r="C58" s="15">
         <v>0</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F58" s="21"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2532,20 +2547,20 @@
       <c r="A59" s="15">
         <v>58</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="18">
         <v>16</v>
       </c>
       <c r="C59" s="15">
         <v>200000000</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="19" t="s">
         <v>50</v>
       </c>
       <c r="G59" s="1"/>
@@ -2555,20 +2570,20 @@
       <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="18">
         <v>16</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="18">
         <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F60" s="21"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2576,20 +2591,20 @@
       <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="18">
         <v>16</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="18">
         <f t="shared" si="1"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="F61" s="21"/>
+      <c r="F61" s="19"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2597,35 +2612,35 @@
       <c r="A62" s="15">
         <v>61</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="18">
         <v>16</v>
       </c>
       <c r="C62" s="15">
         <v>0</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="18">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F62" s="21"/>
+      <c r="F62" s="19"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
     <mergeCell ref="F43:F46"/>
     <mergeCell ref="F47:F50"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -318,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,10 +388,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +871,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,7 +989,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E12"/>
+      <selection activeCell="B13" sqref="B13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1329,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1786,7 +1789,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="1"/>
@@ -1802,14 +1805,14 @@
       <c r="C24" s="20">
         <v>5000000</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1823,14 +1826,14 @@
       <c r="C25" s="20">
         <v>1000000</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -1844,14 +1847,14 @@
       <c r="C26" s="20">
         <v>0</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -1872,7 +1875,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="24" t="s">
         <v>35</v>
       </c>
       <c r="G27" s="1"/>
@@ -1888,14 +1891,14 @@
       <c r="C28" s="20">
         <v>35000000</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1909,14 +1912,14 @@
       <c r="C29" s="20">
         <v>15000000</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1930,14 +1933,14 @@
       <c r="C30" s="20">
         <v>0</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1958,7 +1961,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="1"/>
@@ -1974,14 +1977,14 @@
       <c r="C32" s="20">
         <v>60000000</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1995,14 +1998,14 @@
       <c r="C33" s="20">
         <v>30000000</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2016,14 +2019,14 @@
       <c r="C34" s="20">
         <v>0</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="23"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2044,7 +2047,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="1"/>
@@ -2060,14 +2063,14 @@
       <c r="C36" s="20">
         <v>100000000</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="23"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2081,14 +2084,14 @@
       <c r="C37" s="20">
         <v>50000000</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2102,14 +2105,14 @@
       <c r="C38" s="20">
         <v>0</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2130,7 +2133,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="1"/>
@@ -2143,17 +2146,17 @@
       <c r="B40" s="21">
         <v>11</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2164,17 +2167,17 @@
       <c r="B41" s="21">
         <v>11</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2188,14 +2191,14 @@
       <c r="C42" s="20">
         <v>0</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2213,10 +2216,10 @@
         <v>30</v>
       </c>
       <c r="E43" s="18">
-        <f>E3*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F43" s="19" t="s">
+        <f>E3</f>
+        <v>0.8</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="1"/>
@@ -2235,11 +2238,11 @@
       <c r="D44" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="18">
-        <f t="shared" ref="E44:E62" si="1">E4*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F44" s="19"/>
+      <c r="E44" s="19">
+        <f t="shared" ref="E44:E62" si="1">E4</f>
+        <v>0.9</v>
+      </c>
+      <c r="F44" s="25"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2256,11 +2259,11 @@
       <c r="D45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="19">
         <f t="shared" si="1"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F45" s="19"/>
+        <v>0.95</v>
+      </c>
+      <c r="F45" s="25"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2277,11 +2280,11 @@
       <c r="D46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="19">
         <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="F46" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="25"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2298,11 +2301,11 @@
       <c r="D47" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="19">
         <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-      <c r="F47" s="19" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="1"/>
@@ -2321,11 +2324,11 @@
       <c r="D48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="19">
         <f t="shared" si="1"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F48" s="19"/>
+        <v>0.9</v>
+      </c>
+      <c r="F48" s="25"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2342,11 +2345,11 @@
       <c r="D49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="19">
         <f t="shared" si="1"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F49" s="19"/>
+        <v>0.95</v>
+      </c>
+      <c r="F49" s="25"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -2363,11 +2366,11 @@
       <c r="D50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="19">
         <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="F50" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="25"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2384,11 +2387,11 @@
       <c r="D51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="19">
         <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-      <c r="F51" s="19" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="1"/>
@@ -2407,11 +2410,11 @@
       <c r="D52" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="19">
         <f t="shared" si="1"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F52" s="19"/>
+        <v>0.9</v>
+      </c>
+      <c r="F52" s="25"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -2428,11 +2431,11 @@
       <c r="D53" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="19">
         <f t="shared" si="1"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F53" s="19"/>
+        <v>0.95</v>
+      </c>
+      <c r="F53" s="25"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -2449,11 +2452,11 @@
       <c r="D54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="19">
         <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="F54" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="25"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -2470,11 +2473,11 @@
       <c r="D55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="19">
         <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-      <c r="F55" s="19" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>47</v>
       </c>
       <c r="G55" s="1"/>
@@ -2493,11 +2496,11 @@
       <c r="D56" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="19">
         <f t="shared" si="1"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F56" s="19"/>
+        <v>0.9</v>
+      </c>
+      <c r="F56" s="25"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2514,11 +2517,11 @@
       <c r="D57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="19">
         <f t="shared" si="1"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F57" s="19"/>
+        <v>0.95</v>
+      </c>
+      <c r="F57" s="25"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2535,11 +2538,11 @@
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="19">
         <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="F58" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="25"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2556,11 +2559,11 @@
       <c r="D59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="19">
         <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-      <c r="F59" s="19" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>50</v>
       </c>
       <c r="G59" s="1"/>
@@ -2579,11 +2582,11 @@
       <c r="D60" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="19">
         <f t="shared" si="1"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F60" s="19"/>
+        <v>0.9</v>
+      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2600,11 +2603,11 @@
       <c r="D61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="19">
         <f t="shared" si="1"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F61" s="19"/>
+        <v>0.95</v>
+      </c>
+      <c r="F61" s="25"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2621,26 +2624,26 @@
       <c r="D62" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="19">
         <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="F62" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>启用类型</t>
   </si>
   <si>
+    <t>buyu_award</t>
+  </si>
+  <si>
     <t>vip_set</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>vip_set2</t>
   </si>
   <si>
+    <t>xxl_caishen_award</t>
+  </si>
+  <si>
     <t>default_set</t>
   </si>
   <si>
@@ -64,9 +70,18 @@
     <t>为空不处理</t>
   </si>
   <si>
+    <t>xxl_xiyou_award</t>
+  </si>
+  <si>
+    <t>xxl_sanguo_award</t>
+  </si>
+  <si>
     <t>游戏类型</t>
   </si>
   <si>
+    <t>buyu_3d_award</t>
+  </si>
+  <si>
     <t>zjd_award</t>
   </si>
   <si>
@@ -85,6 +100,18 @@
     <t>max_award_deal_id</t>
   </si>
   <si>
+    <t>drt_cjj_little_game_discount</t>
+  </si>
+  <si>
+    <t>drt_hlby_little_game_discount</t>
+  </si>
+  <si>
+    <t>drt_byam_little_game_discount</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>set_id</t>
   </si>
   <si>
@@ -181,6 +208,51 @@
     <t>80000000</t>
   </si>
   <si>
+    <t>vip0-1</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>VIP2</t>
+  </si>
+  <si>
+    <t>vip3</t>
+  </si>
+  <si>
+    <t>25000000</t>
+  </si>
+  <si>
+    <t>VIP4</t>
+  </si>
+  <si>
+    <t>VIP5</t>
+  </si>
+  <si>
+    <t>400000000</t>
+  </si>
+  <si>
+    <t>VIP6</t>
+  </si>
+  <si>
+    <t>250000000</t>
+  </si>
+  <si>
+    <t>VIP7</t>
+  </si>
+  <si>
+    <t>500000000</t>
+  </si>
+  <si>
+    <t>VIP8</t>
+  </si>
+  <si>
+    <t>VIP9-VIP12</t>
+  </si>
+  <si>
     <t>model_id</t>
   </si>
   <si>
@@ -193,51 +265,51 @@
     <t>max_once_award|最大的单笔奖励</t>
   </si>
   <si>
-    <t>xxl_caishen_award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxl_xiyou_award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxl_sanguo_award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_3d_award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_cjj_little_game_discount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_hlby_little_game_discount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_byam_little_game_discount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>10000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -257,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,19 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,16 +377,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -318,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,58 +421,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,17 +799,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -759,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -773,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -787,27 +871,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>10</v>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>11</v>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -815,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -825,14 +909,14 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>58</v>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -840,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -851,16 +935,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -870,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,82 +973,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="21">
         <v>4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="21">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -979,7 +1063,7 @@
       <c r="E7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -989,17 +1073,17 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E17"/>
+      <selection activeCell="B13" sqref="B13:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="4" width="20.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="9" style="18"/>
+    <col min="3" max="4" width="20.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -1007,290 +1091,358 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
         <v>12</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18">
         <v>6</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="18">
         <v>7</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="18">
         <v>8</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="18">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="19">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="19">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="19">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="19">
         <v>4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="19">
         <v>3</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="19">
         <v>5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="19">
         <v>6</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="19">
         <v>3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="19">
         <v>7</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="19">
         <v>8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="19">
         <v>9</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="19">
         <v>12</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="19">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="19">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
         <v>4</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="19">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19">
         <v>5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D17" s="19">
+        <v>5</v>
+      </c>
+      <c r="E17" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="D18" s="19">
+        <v>6</v>
+      </c>
+      <c r="E18" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
         <v>4</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C19" s="19">
         <v>7</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D19" s="19">
+        <v>7</v>
+      </c>
+      <c r="E19" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" s="19">
         <v>8</v>
       </c>
-      <c r="E16" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="D20" s="19">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C21" s="19">
         <v>9</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D21" s="19">
         <v>12</v>
       </c>
-      <c r="E17" s="10">
-        <v>16</v>
+      <c r="E21" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1322,18 +1474,18 @@
       <c r="D29" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1352,22 +1504,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1381,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1401,13 +1553,13 @@
         <v>20000000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
@@ -1423,8 +1575,8 @@
       <c r="C4" s="1">
         <v>5000000</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1443,8 +1595,8 @@
       <c r="C5" s="1">
         <v>1000000</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>0.95</v>
@@ -1463,8 +1615,8 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1484,13 +1636,13 @@
         <v>100000000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1506,14 +1658,14 @@
       <c r="C8" s="1">
         <v>35000000</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>36</v>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1526,14 +1678,14 @@
       <c r="C9" s="1">
         <v>15000000</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>38</v>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>0.95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1546,14 +1698,14 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1567,16 +1719,16 @@
         <v>120000000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1589,8 +1741,8 @@
       <c r="C12" s="1">
         <v>60000000</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>44</v>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
@@ -1606,8 +1758,8 @@
       <c r="C13" s="1">
         <v>30000000</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="1">
         <v>0.95</v>
@@ -1623,8 +1775,8 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1641,13 +1793,13 @@
         <v>200000000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1660,8 +1812,8 @@
       <c r="C16" s="1">
         <v>100000000</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>48</v>
+      <c r="D16" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1677,8 +1829,8 @@
       <c r="C17" s="1">
         <v>50000000</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>0.95</v>
@@ -1694,8 +1846,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1712,13 +1864,13 @@
         <v>200000000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1728,11 +1880,11 @@
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>48</v>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="1">
         <v>0.9</v>
@@ -1745,11 +1897,11 @@
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>44</v>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="1">
         <v>0.95</v>
@@ -1765,875 +1917,1882 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
+      <c r="D22" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="9">
         <v>7</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="8">
         <v>20000000</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="21">
+      <c r="D23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9">
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>31</v>
+      <c r="F23" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="9">
         <v>7</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="8">
         <v>5000000</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="D24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="9">
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="9">
         <v>7</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="8">
         <v>1000000</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="21">
+      <c r="D25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="D26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="9">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="20">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="9">
         <v>8</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="8">
         <v>100000000</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="21">
+      <c r="D27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>35</v>
+      <c r="F27" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="9">
         <v>8</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="8">
         <v>35000000</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="D28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="9">
         <v>8</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="8">
         <v>15000000</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="21">
+      <c r="D29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="9">
         <v>8</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="8">
         <v>0</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="D30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="9">
         <v>9</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="8">
         <v>120000000</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="D31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>42</v>
+      <c r="F31" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="9">
         <v>9</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="8">
         <v>60000000</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="D32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="20">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="9">
         <v>9</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="8">
         <v>30000000</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="21">
+      <c r="D33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="24"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="9">
         <v>9</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="8">
         <v>0</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="21">
+      <c r="D34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="9">
         <v>10</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="8">
         <v>200000000</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="21">
+      <c r="D35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>47</v>
+      <c r="F35" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="20">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="9">
         <v>10</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="8">
         <v>100000000</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="21">
+      <c r="D36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="24"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="9">
         <v>10</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="8">
         <v>50000000</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="21">
+      <c r="D37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="9">
         <v>10</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="8">
         <v>0</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="21">
+      <c r="D38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="24"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="9">
         <v>11</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="8">
         <v>200000000</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="21">
+      <c r="D39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>50</v>
+      <c r="F39" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="9">
         <v>11</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="21">
+      <c r="C40" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="9">
         <v>11</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="21">
+      <c r="C41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="9">
         <v>11</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="8">
         <v>0</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="21">
+      <c r="D42" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="9">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="13">
         <v>12</v>
       </c>
-      <c r="C43" s="15">
-        <v>20000000</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="18">
+      <c r="C43" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="13">
         <f>E3</f>
         <v>0.8</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>31</v>
+      <c r="F43" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="13">
         <v>12</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="12">
         <v>5000000</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="19">
+      <c r="D44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="13">
         <f t="shared" ref="E44:E62" si="1">E4</f>
         <v>0.9</v>
       </c>
-      <c r="F44" s="25"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="13">
         <v>12</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="12">
         <v>1000000</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="19">
+      <c r="D45" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="13">
         <v>12</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="12">
         <v>0</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="D46" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="13">
         <v>13</v>
       </c>
-      <c r="C47" s="15">
-        <v>100000000</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="19">
+      <c r="C47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>35</v>
+      <c r="F47" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="13">
         <v>13</v>
       </c>
-      <c r="C48" s="15">
-        <v>35000000</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="19">
+      <c r="C48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="13">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="13">
         <v>13</v>
       </c>
-      <c r="C49" s="15">
-        <v>15000000</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="19">
+      <c r="C49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="13">
         <v>13</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="12">
         <v>0</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="19">
+      <c r="D50" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="13">
         <v>14</v>
       </c>
-      <c r="C51" s="15">
-        <v>120000000</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="19">
+      <c r="C51" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>42</v>
+      <c r="F51" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="13">
         <v>14</v>
       </c>
-      <c r="C52" s="15">
-        <v>60000000</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="19">
+      <c r="C52" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="13">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="24"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="13">
         <v>14</v>
       </c>
-      <c r="C53" s="15">
-        <v>30000000</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="19">
+      <c r="C53" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F53" s="25"/>
+      <c r="F53" s="24"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="13">
         <v>14</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="12">
         <v>0</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="19">
+      <c r="D54" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="24"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="15">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="13">
         <v>15</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="12">
         <v>200000000</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="19">
+      <c r="D55" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>47</v>
+      <c r="F55" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="13">
         <v>15</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="12">
         <v>100000000</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="19">
+      <c r="D56" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="13">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F56" s="25"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="13">
         <v>15</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="12">
         <v>50000000</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="19">
+      <c r="D57" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F57" s="25"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="13">
         <v>15</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="12">
         <v>0</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="19">
+      <c r="D58" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="13">
         <v>16</v>
       </c>
-      <c r="C59" s="15">
-        <v>200000000</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="19">
+      <c r="C59" s="12">
+        <v>400000000</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>50</v>
+      <c r="F59" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="13">
         <v>16</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="19">
+      <c r="C60" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="13">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="15">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="13">
         <v>16</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="19">
+      <c r="C61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="13">
         <v>16</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="12">
         <v>0</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="19">
+      <c r="D62" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="12">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13">
+        <v>17</v>
+      </c>
+      <c r="C63" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="12">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
+        <v>17</v>
+      </c>
+      <c r="C64" s="12">
+        <v>500000000</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="12">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13">
+        <v>17</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="12">
+        <v>500000000</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="12">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13">
+        <v>17</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="13">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="12">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13">
+        <v>18</v>
+      </c>
+      <c r="C67" s="16">
+        <v>1500000000</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="12">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13">
+        <v>18</v>
+      </c>
+      <c r="C68" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1500000000</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="12">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13">
+        <v>18</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="12">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>18</v>
+      </c>
+      <c r="C70" s="12">
+        <v>0</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="12">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>19</v>
+      </c>
+      <c r="C71" s="16">
+        <v>2000000000</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13">
+        <v>19</v>
+      </c>
+      <c r="C72" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="D72" s="16">
+        <v>2000000000</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="12">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13">
+        <v>19</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13">
+        <v>19</v>
+      </c>
+      <c r="C74" s="12">
+        <v>0</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1</v>
+      </c>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
+        <v>20</v>
+      </c>
+      <c r="C75" s="12">
+        <v>3000000000</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>20</v>
+      </c>
+      <c r="C76" s="12">
+        <v>2000000000</v>
+      </c>
+      <c r="D76" s="12">
+        <v>3000000000</v>
+      </c>
+      <c r="E76" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13">
+        <v>20</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="12">
+        <v>2000000000</v>
+      </c>
+      <c r="E77" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F77" s="23"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>20</v>
+      </c>
+      <c r="C78" s="12">
+        <v>0</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17">
+        <v>21</v>
+      </c>
+      <c r="C79" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17">
+        <v>21</v>
+      </c>
+      <c r="C80" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17">
+        <v>21</v>
+      </c>
+      <c r="C81" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="17">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17">
+        <v>21</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="17">
+        <v>1</v>
+      </c>
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="17">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17">
+        <f>B79+1</f>
+        <v>22</v>
+      </c>
+      <c r="C83" s="17">
+        <v>40000000</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="17">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17">
+        <f>B80+1</f>
+        <v>22</v>
+      </c>
+      <c r="C84" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="D84" s="17">
+        <v>40000000</v>
+      </c>
+      <c r="E84" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="17">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17">
+        <f>B81+1</f>
+        <v>22</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="E85" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="17">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17">
+        <f>B82+1</f>
+        <v>22</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="17">
+        <v>1</v>
+      </c>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17">
+        <f t="shared" ref="B87:B114" si="2">B83+1</f>
+        <v>23</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="17">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="17">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="17">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="17">
+        <v>1</v>
+      </c>
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="17">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C91" s="17">
+        <v>200000000</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C92" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="17">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C93" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="17">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C94" s="17">
+        <v>0</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" s="17">
+        <v>1</v>
+      </c>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="17">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C95" s="17">
+        <v>400000000</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="17">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="17">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E97" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="17">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C98" s="17">
+        <v>0</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="17">
+        <v>1</v>
+      </c>
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="17">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C99" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="17">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C100" s="17">
+        <v>500000000</v>
+      </c>
+      <c r="D100" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="E100" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="17">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="17">
+        <v>500000000</v>
+      </c>
+      <c r="E101" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F101" s="25"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="17">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C102" s="17">
+        <v>0</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="17">
+        <v>1</v>
+      </c>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="17">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C103" s="17">
+        <v>1500000000</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="17">
+        <v>103</v>
+      </c>
+      <c r="B104" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="D104" s="17">
+        <v>1500000000</v>
+      </c>
+      <c r="E104" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F104" s="25"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="17">
+        <v>104</v>
+      </c>
+      <c r="B105" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="E105" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="17">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" s="17">
+        <v>1</v>
+      </c>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="17">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C107" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="17">
+        <v>107</v>
+      </c>
+      <c r="B108" s="17">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="D108" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="E108" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F108" s="25"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="17">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="E109" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F109" s="25"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="17">
+        <v>109</v>
+      </c>
+      <c r="B110" s="17">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C110" s="17">
+        <v>0</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E110" s="17">
+        <v>1</v>
+      </c>
+      <c r="F110" s="25"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="17">
+        <v>110</v>
+      </c>
+      <c r="B111" s="17">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C111" s="17">
+        <v>3000000000</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="17">
+        <v>111</v>
+      </c>
+      <c r="B112" s="17">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C112" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="D112" s="17">
+        <v>3000000000</v>
+      </c>
+      <c r="E112" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F112" s="25"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="17">
+        <v>112</v>
+      </c>
+      <c r="B113" s="17">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="E113" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F113" s="25"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="17">
+        <v>113</v>
+      </c>
+      <c r="B114" s="17">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C114" s="17">
+        <v>0</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114" s="17">
+        <v>1</v>
+      </c>
+      <c r="F114" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="23">
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="F111:F114"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F43:F46"/>
     <mergeCell ref="F47:F50"/>
     <mergeCell ref="F51:F54"/>
@@ -2645,9 +3804,9 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="F39:F42"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2656,7 +3815,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2673,16 +3832,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2877,7 +4036,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -463,7 +463,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,13 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1014,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1070,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E21"/>
+      <selection activeCell="A22" sqref="A22:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1445,33 +1445,158 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>5</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>5</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>5</v>
+      </c>
+      <c r="C25" s="19">
+        <v>4</v>
+      </c>
+      <c r="D25" s="19">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19">
+        <v>5</v>
+      </c>
+      <c r="D26" s="19">
+        <v>5</v>
+      </c>
+      <c r="E26" s="19">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19">
+        <v>6</v>
+      </c>
+      <c r="D27" s="19">
+        <v>6</v>
+      </c>
+      <c r="E27" s="19">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>5</v>
+      </c>
+      <c r="C28" s="19">
+        <v>7</v>
+      </c>
+      <c r="D28" s="19">
+        <v>7</v>
+      </c>
+      <c r="E28" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19">
+        <v>5</v>
+      </c>
+      <c r="C29" s="19">
+        <v>8</v>
+      </c>
+      <c r="D29" s="19">
+        <v>8</v>
+      </c>
+      <c r="E29" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19">
+        <v>5</v>
+      </c>
+      <c r="C30" s="19">
+        <v>9</v>
+      </c>
+      <c r="D30" s="19">
+        <v>12</v>
+      </c>
+      <c r="E30" s="19">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1484,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1941,7 +2066,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="1"/>
@@ -1964,7 +2089,7 @@
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1985,7 +2110,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2006,7 +2131,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2027,7 +2152,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2050,7 +2175,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2071,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2092,7 +2217,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2113,7 +2238,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2136,7 +2261,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2157,7 +2282,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2178,7 +2303,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2199,7 +2324,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2222,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2243,7 +2368,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2264,7 +2389,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2285,7 +2410,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2308,7 +2433,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2329,7 +2454,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2350,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2371,7 +2496,7 @@
         <f>E3</f>
         <v>0.8</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="25" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="1"/>
@@ -2394,7 +2519,7 @@
         <f t="shared" ref="E44:E62" si="1">E4</f>
         <v>0.9</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2415,7 +2540,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2429,14 +2554,14 @@
       <c r="C46" s="12">
         <v>0</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2457,7 +2582,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="1"/>
@@ -2480,7 +2605,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2501,7 +2626,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -2515,14 +2640,14 @@
       <c r="C50" s="12">
         <v>0</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E50" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2543,7 +2668,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="1"/>
@@ -2566,7 +2691,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -2587,7 +2712,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -2601,14 +2726,14 @@
       <c r="C54" s="12">
         <v>0</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E54" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -2629,7 +2754,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="25" t="s">
         <v>67</v>
       </c>
       <c r="G55" s="1"/>
@@ -2652,7 +2777,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2666,14 +2791,14 @@
       <c r="C57" s="12">
         <v>50000000</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2687,14 +2812,14 @@
       <c r="C58" s="12">
         <v>0</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
       <c r="E58" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2715,7 +2840,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="1"/>
@@ -2738,7 +2863,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2759,7 +2884,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2773,14 +2898,14 @@
       <c r="C62" s="12">
         <v>0</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2800,7 +2925,7 @@
       <c r="E63" s="13">
         <v>0.8</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2820,7 +2945,7 @@
       <c r="E64" s="13">
         <v>0.9</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
@@ -2838,7 +2963,7 @@
       <c r="E65" s="13">
         <v>0.95</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
@@ -2850,13 +2975,13 @@
       <c r="C66" s="12">
         <v>0</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="22" t="s">
         <v>85</v>
       </c>
       <c r="E66" s="13">
         <v>1</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
@@ -2874,7 +2999,7 @@
       <c r="E67" s="13">
         <v>0.8</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2894,7 +3019,7 @@
       <c r="E68" s="13">
         <v>0.9</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
@@ -2912,7 +3037,7 @@
       <c r="E69" s="13">
         <v>0.95</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
@@ -2924,13 +3049,13 @@
       <c r="C70" s="12">
         <v>0</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
@@ -2948,7 +3073,7 @@
       <c r="E71" s="13">
         <v>0.8</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2968,7 +3093,7 @@
       <c r="E72" s="13">
         <v>0.9</v>
       </c>
-      <c r="F72" s="23"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
@@ -2986,7 +3111,7 @@
       <c r="E73" s="13">
         <v>0.95</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
@@ -2998,13 +3123,13 @@
       <c r="C74" s="12">
         <v>0</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="13">
         <v>1</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
@@ -3022,7 +3147,7 @@
       <c r="E75" s="13">
         <v>0.8</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3042,7 +3167,7 @@
       <c r="E76" s="13">
         <v>0.9</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
@@ -3060,7 +3185,7 @@
       <c r="E77" s="13">
         <v>0.95</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
@@ -3072,13 +3197,13 @@
       <c r="C78" s="12">
         <v>0</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
@@ -3094,9 +3219,10 @@
         <v>39</v>
       </c>
       <c r="E79" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F79" s="25" t="s">
+        <f>E43*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F79" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3114,9 +3240,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F80" s="25"/>
+        <f t="shared" ref="E80:E114" si="2">E44*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3132,9 +3259,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F81" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3150,9 +3278,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <v>1</v>
-      </c>
-      <c r="F82" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3162,16 +3291,17 @@
         <f>B79+1</f>
         <v>22</v>
       </c>
-      <c r="C83" s="17">
-        <v>40000000</v>
+      <c r="C83" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F83" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F83" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3183,16 +3313,17 @@
         <f>B80+1</f>
         <v>22</v>
       </c>
-      <c r="C84" s="17">
-        <v>20000000</v>
-      </c>
-      <c r="D84" s="17">
-        <v>40000000</v>
+      <c r="C84" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E84" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F84" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3205,13 +3336,14 @@
       <c r="C85" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="17">
-        <v>20000000</v>
+      <c r="D85" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="E85" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F85" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3228,16 +3360,17 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <v>1</v>
-      </c>
-      <c r="F86" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B114" si="2">B83+1</f>
+        <f t="shared" ref="B87:B114" si="3">B83+1</f>
         <v>23</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3247,9 +3380,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F87" s="26" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F87" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3258,7 +3392,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3268,16 +3402,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F88" s="26"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -3287,16 +3422,17 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F89" s="26"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C90" s="17">
@@ -3306,16 +3442,17 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <v>1</v>
-      </c>
-      <c r="F90" s="26"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C91" s="17">
@@ -3325,9 +3462,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F91" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F91" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3336,7 +3474,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C92" s="17">
@@ -3346,16 +3484,17 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F92" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C93" s="17">
@@ -3365,16 +3504,17 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F93" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -3384,16 +3524,17 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <v>1</v>
-      </c>
-      <c r="F94" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -3403,9 +3544,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F95" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3414,7 +3556,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -3424,16 +3566,17 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F96" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -3443,16 +3586,17 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F97" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C98" s="17">
@@ -3462,16 +3606,17 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <v>1</v>
-      </c>
-      <c r="F98" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F98" s="23"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C99" s="17">
@@ -3481,9 +3626,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F99" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F99" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3492,7 +3638,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C100" s="17">
@@ -3502,16 +3648,17 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F100" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C101" s="17" t="s">
@@ -3521,16 +3668,17 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F101" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F101" s="23"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C102" s="17">
@@ -3540,16 +3688,17 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <v>1</v>
-      </c>
-      <c r="F102" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F102" s="23"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C103" s="17">
@@ -3559,9 +3708,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F103" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F103" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3570,7 +3720,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C104" s="17">
@@ -3580,16 +3730,17 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F104" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -3599,16 +3750,17 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F105" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C106" s="17">
@@ -3618,16 +3770,17 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <v>1</v>
-      </c>
-      <c r="F106" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C107" s="17">
@@ -3637,9 +3790,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F107" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3648,7 +3802,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C108" s="17">
@@ -3658,16 +3812,17 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F108" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -3677,16 +3832,17 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F109" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C110" s="17">
@@ -3696,16 +3852,17 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <v>1</v>
-      </c>
-      <c r="F110" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C111" s="17">
@@ -3715,9 +3872,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F111" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F111" s="23" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3726,7 +3884,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C112" s="17">
@@ -3736,16 +3894,17 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F112" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3755,16 +3914,17 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F113" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C114" s="17">
@@ -3774,12 +3934,28 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <v>1</v>
-      </c>
-      <c r="F114" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F114" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3788,25 +3964,10 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,10 +466,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +478,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E30"/>
+      <selection activeCell="B13" sqref="B13:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2066,7 +2069,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="1"/>
@@ -2089,7 +2092,7 @@
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2110,7 +2113,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2131,7 +2134,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2152,7 +2155,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2175,7 +2178,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2196,7 +2199,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2217,7 +2220,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2238,7 +2241,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2261,7 +2264,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2282,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2303,7 +2306,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2324,7 +2327,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2347,7 +2350,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2368,7 +2371,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2389,7 +2392,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2410,7 +2413,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2433,7 +2436,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2454,7 +2457,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2475,7 +2478,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="27"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2493,13 +2496,15 @@
         <v>39</v>
       </c>
       <c r="E43" s="13">
-        <f>E3</f>
-        <v>0.8</v>
+        <f>E3*$G$43</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0.97</v>
+      </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2515,9 +2520,9 @@
       <c r="D44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="13">
-        <f t="shared" ref="E44:E62" si="1">E4</f>
-        <v>0.9</v>
+      <c r="E44" s="23">
+        <f>E4*$G$43</f>
+        <v>0.873</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -2536,9 +2541,9 @@
       <c r="D45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E45" s="23">
+        <f>E5*$G$43</f>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="1"/>
@@ -2557,9 +2562,9 @@
       <c r="D46" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E46" s="23">
+        <f>E6*$G$43</f>
+        <v>0.97</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="1"/>
@@ -2578,9 +2583,9 @@
       <c r="D47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E47" s="23">
+        <f>E7*$G$43</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>64</v>
@@ -2601,9 +2606,9 @@
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E48" s="23">
+        <f>E8*$G$43</f>
+        <v>0.873</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="1"/>
@@ -2622,9 +2627,9 @@
       <c r="D49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E49" s="23">
+        <f>E9*$G$43</f>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="1"/>
@@ -2643,9 +2648,9 @@
       <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E50" s="23">
+        <f>E10*$G$43</f>
+        <v>0.97</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="1"/>
@@ -2664,9 +2669,9 @@
       <c r="D51" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E51" s="23">
+        <f>E11*$G$43</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>65</v>
@@ -2687,9 +2692,9 @@
       <c r="D52" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E52" s="23">
+        <f>E12*$G$43</f>
+        <v>0.873</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="1"/>
@@ -2708,9 +2713,9 @@
       <c r="D53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E53" s="23">
+        <f>E13*$G$43</f>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="1"/>
@@ -2729,9 +2734,9 @@
       <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E54" s="23">
+        <f>E14*$G$43</f>
+        <v>0.97</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="1"/>
@@ -2750,9 +2755,9 @@
       <c r="D55" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E55" s="23">
+        <f>E15*$G$43</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>67</v>
@@ -2773,9 +2778,9 @@
       <c r="D56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E56" s="23">
+        <f>E16*$G$43</f>
+        <v>0.873</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="1"/>
@@ -2794,9 +2799,9 @@
       <c r="D57" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E57" s="23">
+        <f>E17*$G$43</f>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="1"/>
@@ -2815,9 +2820,9 @@
       <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E58" s="23">
+        <f>E18*$G$43</f>
+        <v>0.97</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="1"/>
@@ -2836,9 +2841,9 @@
       <c r="D59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E59" s="23">
+        <f>E19*$G$43</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>68</v>
@@ -2859,9 +2864,9 @@
       <c r="D60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E60" s="23">
+        <f>E20*$G$43</f>
+        <v>0.873</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="1"/>
@@ -2880,9 +2885,9 @@
       <c r="D61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E61" s="23">
+        <f>E21*$G$43</f>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="1"/>
@@ -2901,9 +2906,9 @@
       <c r="D62" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E62" s="23">
+        <f>E22*$G$43</f>
+        <v>0.97</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="1"/>
@@ -2922,8 +2927,8 @@
       <c r="D63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="13">
-        <v>0.8</v>
+      <c r="E63" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>70</v>
@@ -2943,7 +2948,7 @@
         <v>1000000000</v>
       </c>
       <c r="E64" s="13">
-        <v>0.9</v>
+        <v>0.873</v>
       </c>
       <c r="F64" s="25"/>
     </row>
@@ -2961,7 +2966,7 @@
         <v>500000000</v>
       </c>
       <c r="E65" s="13">
-        <v>0.95</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F65" s="25"/>
     </row>
@@ -2979,7 +2984,7 @@
         <v>85</v>
       </c>
       <c r="E66" s="13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F66" s="25"/>
     </row>
@@ -2996,8 +3001,8 @@
       <c r="D67" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="13">
-        <v>0.8</v>
+      <c r="E67" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>72</v>
@@ -3016,8 +3021,8 @@
       <c r="D68" s="16">
         <v>1500000000</v>
       </c>
-      <c r="E68" s="13">
-        <v>0.9</v>
+      <c r="E68" s="23">
+        <v>0.873</v>
       </c>
       <c r="F68" s="25"/>
     </row>
@@ -3034,8 +3039,8 @@
       <c r="D69" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E69" s="13">
-        <v>0.95</v>
+      <c r="E69" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F69" s="25"/>
     </row>
@@ -3052,8 +3057,8 @@
       <c r="D70" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="13">
-        <v>1</v>
+      <c r="E70" s="23">
+        <v>0.97</v>
       </c>
       <c r="F70" s="25"/>
     </row>
@@ -3070,8 +3075,8 @@
       <c r="D71" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="13">
-        <v>0.8</v>
+      <c r="E71" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>74</v>
@@ -3090,8 +3095,8 @@
       <c r="D72" s="16">
         <v>2000000000</v>
       </c>
-      <c r="E72" s="13">
-        <v>0.9</v>
+      <c r="E72" s="23">
+        <v>0.873</v>
       </c>
       <c r="F72" s="25"/>
     </row>
@@ -3108,8 +3113,8 @@
       <c r="D73" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E73" s="13">
-        <v>0.95</v>
+      <c r="E73" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F73" s="25"/>
     </row>
@@ -3126,8 +3131,8 @@
       <c r="D74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="13">
-        <v>1</v>
+      <c r="E74" s="23">
+        <v>0.97</v>
       </c>
       <c r="F74" s="25"/>
     </row>
@@ -3144,8 +3149,8 @@
       <c r="D75" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="13">
-        <v>0.8</v>
+      <c r="E75" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>75</v>
@@ -3164,8 +3169,8 @@
       <c r="D76" s="12">
         <v>3000000000</v>
       </c>
-      <c r="E76" s="13">
-        <v>0.9</v>
+      <c r="E76" s="23">
+        <v>0.873</v>
       </c>
       <c r="F76" s="25"/>
     </row>
@@ -3182,8 +3187,8 @@
       <c r="D77" s="12">
         <v>2000000000</v>
       </c>
-      <c r="E77" s="13">
-        <v>0.95</v>
+      <c r="E77" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F77" s="25"/>
     </row>
@@ -3200,8 +3205,8 @@
       <c r="D78" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="13">
-        <v>1</v>
+      <c r="E78" s="23">
+        <v>0.97</v>
       </c>
       <c r="F78" s="25"/>
     </row>
@@ -3220,9 +3225,9 @@
       </c>
       <c r="E79" s="17">
         <f>E43*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F79" s="23" t="s">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F79" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3240,10 +3245,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <f t="shared" ref="E80:E114" si="2">E44*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F80" s="23"/>
+        <f t="shared" ref="E80:E114" si="1">E44*0.95</f>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3259,10 +3264,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F81" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3278,10 +3283,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F82" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3298,10 +3303,10 @@
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F83" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F83" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3320,10 +3325,10 @@
         <v>63</v>
       </c>
       <c r="E84" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F84" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3340,10 +3345,10 @@
         <v>41</v>
       </c>
       <c r="E85" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F85" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3360,17 +3365,17 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F86" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B114" si="3">B83+1</f>
+        <f t="shared" ref="B87:B114" si="2">B83+1</f>
         <v>23</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3380,10 +3385,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F87" s="24" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F87" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3392,7 +3397,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3402,17 +3407,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F88" s="24"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -3422,17 +3427,17 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F89" s="24"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F89" s="28"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C90" s="17">
@@ -3442,17 +3447,17 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F90" s="24"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F90" s="28"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C91" s="17">
@@ -3462,10 +3467,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F91" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3474,7 +3479,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C92" s="17">
@@ -3484,17 +3489,17 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F92" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C93" s="17">
@@ -3504,17 +3509,17 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F93" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -3524,17 +3529,17 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F94" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -3544,10 +3549,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F95" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F95" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3556,7 +3561,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -3566,17 +3571,17 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F96" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -3586,17 +3591,17 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F97" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C98" s="17">
@@ -3606,17 +3611,17 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F98" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C99" s="17">
@@ -3626,10 +3631,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F99" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F99" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3638,7 +3643,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C100" s="17">
@@ -3648,17 +3653,17 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F100" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C101" s="17" t="s">
@@ -3668,17 +3673,17 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F101" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C102" s="17">
@@ -3688,17 +3693,17 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F102" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C103" s="17">
@@ -3708,10 +3713,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F103" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F103" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3720,7 +3725,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C104" s="17">
@@ -3730,17 +3735,17 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F104" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -3750,17 +3755,17 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F105" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C106" s="17">
@@ -3770,17 +3775,17 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F106" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C107" s="17">
@@ -3790,10 +3795,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F107" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F107" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3802,7 +3807,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C108" s="17">
@@ -3812,17 +3817,17 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F108" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -3832,17 +3837,17 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F109" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C110" s="17">
@@ -3852,17 +3857,17 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F110" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C111" s="17">
@@ -3872,10 +3877,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F111" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F111" s="27" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3884,7 +3889,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C112" s="17">
@@ -3894,17 +3899,17 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F112" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3914,17 +3919,17 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F113" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F113" s="27"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C114" s="17">
@@ -3934,28 +3939,13 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F114" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F114" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3964,6 +3954,21 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,10 +466,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,10 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,7 +1073,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E21"/>
+      <selection activeCell="A22" sqref="A22:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1612,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:E78"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2066,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="1"/>
@@ -2092,7 +2089,7 @@
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2113,7 +2110,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2134,7 +2131,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2155,7 +2152,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2178,7 +2175,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2199,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2220,7 +2217,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2241,7 +2238,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2264,7 +2261,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2285,7 +2282,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="24"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2306,7 +2303,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2327,7 +2324,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2350,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="24"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2371,7 +2368,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2392,7 +2389,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="24"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2413,7 +2410,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2436,7 +2433,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2457,7 +2454,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2478,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2496,15 +2493,13 @@
         <v>39</v>
       </c>
       <c r="E43" s="13">
-        <f>E3*$G$43</f>
-        <v>0.77600000000000002</v>
+        <f>E3</f>
+        <v>0.8</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="1">
-        <v>0.97</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2520,9 +2515,9 @@
       <c r="D44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="23">
-        <f>E4*$G$43</f>
-        <v>0.873</v>
+      <c r="E44" s="13">
+        <f t="shared" ref="E44:E62" si="1">E4</f>
+        <v>0.9</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -2541,9 +2536,9 @@
       <c r="D45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="23">
-        <f>E5*$G$43</f>
-        <v>0.92149999999999999</v>
+      <c r="E45" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="1"/>
@@ -2562,9 +2557,9 @@
       <c r="D46" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="23">
-        <f>E6*$G$43</f>
-        <v>0.97</v>
+      <c r="E46" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="1"/>
@@ -2583,9 +2578,9 @@
       <c r="D47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="23">
-        <f>E7*$G$43</f>
-        <v>0.77600000000000002</v>
+      <c r="E47" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>64</v>
@@ -2606,9 +2601,9 @@
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="23">
-        <f>E8*$G$43</f>
-        <v>0.873</v>
+      <c r="E48" s="13">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="1"/>
@@ -2627,9 +2622,9 @@
       <c r="D49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="23">
-        <f>E9*$G$43</f>
-        <v>0.92149999999999999</v>
+      <c r="E49" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="1"/>
@@ -2648,9 +2643,9 @@
       <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="23">
-        <f>E10*$G$43</f>
-        <v>0.97</v>
+      <c r="E50" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="1"/>
@@ -2669,9 +2664,9 @@
       <c r="D51" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="23">
-        <f>E11*$G$43</f>
-        <v>0.77600000000000002</v>
+      <c r="E51" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>65</v>
@@ -2692,9 +2687,9 @@
       <c r="D52" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="23">
-        <f>E12*$G$43</f>
-        <v>0.873</v>
+      <c r="E52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="1"/>
@@ -2713,9 +2708,9 @@
       <c r="D53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="23">
-        <f>E13*$G$43</f>
-        <v>0.92149999999999999</v>
+      <c r="E53" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="1"/>
@@ -2734,9 +2729,9 @@
       <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="23">
-        <f>E14*$G$43</f>
-        <v>0.97</v>
+      <c r="E54" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="1"/>
@@ -2755,9 +2750,9 @@
       <c r="D55" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="23">
-        <f>E15*$G$43</f>
-        <v>0.77600000000000002</v>
+      <c r="E55" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>67</v>
@@ -2778,9 +2773,9 @@
       <c r="D56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="23">
-        <f>E16*$G$43</f>
-        <v>0.873</v>
+      <c r="E56" s="13">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="1"/>
@@ -2799,9 +2794,9 @@
       <c r="D57" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="23">
-        <f>E17*$G$43</f>
-        <v>0.92149999999999999</v>
+      <c r="E57" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="1"/>
@@ -2820,9 +2815,9 @@
       <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="23">
-        <f>E18*$G$43</f>
-        <v>0.97</v>
+      <c r="E58" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="1"/>
@@ -2841,9 +2836,9 @@
       <c r="D59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="23">
-        <f>E19*$G$43</f>
-        <v>0.77600000000000002</v>
+      <c r="E59" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>68</v>
@@ -2864,9 +2859,9 @@
       <c r="D60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="23">
-        <f>E20*$G$43</f>
-        <v>0.873</v>
+      <c r="E60" s="13">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="1"/>
@@ -2885,9 +2880,9 @@
       <c r="D61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="23">
-        <f>E21*$G$43</f>
-        <v>0.92149999999999999</v>
+      <c r="E61" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="1"/>
@@ -2906,9 +2901,9 @@
       <c r="D62" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="23">
-        <f>E22*$G$43</f>
-        <v>0.97</v>
+      <c r="E62" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="1"/>
@@ -2927,8 +2922,8 @@
       <c r="D63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="23">
-        <v>0.77600000000000002</v>
+      <c r="E63" s="13">
+        <v>0.8</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>70</v>
@@ -2948,7 +2943,7 @@
         <v>1000000000</v>
       </c>
       <c r="E64" s="13">
-        <v>0.873</v>
+        <v>0.9</v>
       </c>
       <c r="F64" s="25"/>
     </row>
@@ -2966,7 +2961,7 @@
         <v>500000000</v>
       </c>
       <c r="E65" s="13">
-        <v>0.92149999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F65" s="25"/>
     </row>
@@ -2984,7 +2979,7 @@
         <v>85</v>
       </c>
       <c r="E66" s="13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F66" s="25"/>
     </row>
@@ -3001,8 +2996,8 @@
       <c r="D67" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="23">
-        <v>0.77600000000000002</v>
+      <c r="E67" s="13">
+        <v>0.8</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>72</v>
@@ -3021,8 +3016,8 @@
       <c r="D68" s="16">
         <v>1500000000</v>
       </c>
-      <c r="E68" s="23">
-        <v>0.873</v>
+      <c r="E68" s="13">
+        <v>0.9</v>
       </c>
       <c r="F68" s="25"/>
     </row>
@@ -3039,8 +3034,8 @@
       <c r="D69" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E69" s="23">
-        <v>0.92149999999999999</v>
+      <c r="E69" s="13">
+        <v>0.95</v>
       </c>
       <c r="F69" s="25"/>
     </row>
@@ -3057,8 +3052,8 @@
       <c r="D70" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="23">
-        <v>0.97</v>
+      <c r="E70" s="13">
+        <v>1</v>
       </c>
       <c r="F70" s="25"/>
     </row>
@@ -3075,8 +3070,8 @@
       <c r="D71" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="23">
-        <v>0.77600000000000002</v>
+      <c r="E71" s="13">
+        <v>0.8</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>74</v>
@@ -3095,8 +3090,8 @@
       <c r="D72" s="16">
         <v>2000000000</v>
       </c>
-      <c r="E72" s="23">
-        <v>0.873</v>
+      <c r="E72" s="13">
+        <v>0.9</v>
       </c>
       <c r="F72" s="25"/>
     </row>
@@ -3113,8 +3108,8 @@
       <c r="D73" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E73" s="23">
-        <v>0.92149999999999999</v>
+      <c r="E73" s="13">
+        <v>0.95</v>
       </c>
       <c r="F73" s="25"/>
     </row>
@@ -3131,8 +3126,8 @@
       <c r="D74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="23">
-        <v>0.97</v>
+      <c r="E74" s="13">
+        <v>1</v>
       </c>
       <c r="F74" s="25"/>
     </row>
@@ -3149,8 +3144,8 @@
       <c r="D75" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="23">
-        <v>0.77600000000000002</v>
+      <c r="E75" s="13">
+        <v>0.8</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>75</v>
@@ -3169,8 +3164,8 @@
       <c r="D76" s="12">
         <v>3000000000</v>
       </c>
-      <c r="E76" s="23">
-        <v>0.873</v>
+      <c r="E76" s="13">
+        <v>0.9</v>
       </c>
       <c r="F76" s="25"/>
     </row>
@@ -3187,8 +3182,8 @@
       <c r="D77" s="12">
         <v>2000000000</v>
       </c>
-      <c r="E77" s="23">
-        <v>0.92149999999999999</v>
+      <c r="E77" s="13">
+        <v>0.95</v>
       </c>
       <c r="F77" s="25"/>
     </row>
@@ -3205,8 +3200,8 @@
       <c r="D78" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="23">
-        <v>0.97</v>
+      <c r="E78" s="13">
+        <v>1</v>
       </c>
       <c r="F78" s="25"/>
     </row>
@@ -3225,9 +3220,9 @@
       </c>
       <c r="E79" s="17">
         <f>E43*0.95</f>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F79" s="27" t="s">
+        <v>0.76</v>
+      </c>
+      <c r="F79" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3245,10 +3240,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <f t="shared" ref="E80:E114" si="1">E44*0.95</f>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F80" s="27"/>
+        <f t="shared" ref="E80:E114" si="2">E44*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3264,10 +3259,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F81" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3283,10 +3278,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F82" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3303,10 +3298,10 @@
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F83" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F83" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3325,10 +3320,10 @@
         <v>63</v>
       </c>
       <c r="E84" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F84" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3345,10 +3340,10 @@
         <v>41</v>
       </c>
       <c r="E85" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F85" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3365,17 +3360,17 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F86" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B114" si="2">B83+1</f>
+        <f t="shared" ref="B87:B114" si="3">B83+1</f>
         <v>23</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3385,10 +3380,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F87" s="28" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F87" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3397,7 +3392,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3407,17 +3402,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F88" s="28"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -3427,17 +3422,17 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F89" s="28"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C90" s="17">
@@ -3447,17 +3442,17 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F90" s="28"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C91" s="17">
@@ -3467,10 +3462,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F91" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F91" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3479,7 +3474,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C92" s="17">
@@ -3489,17 +3484,17 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F92" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C93" s="17">
@@ -3509,17 +3504,17 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F93" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -3529,17 +3524,17 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F94" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -3549,10 +3544,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F95" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3561,7 +3556,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -3571,17 +3566,17 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F96" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -3591,17 +3586,17 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F97" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C98" s="17">
@@ -3611,17 +3606,17 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F98" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F98" s="23"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C99" s="17">
@@ -3631,10 +3626,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F99" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F99" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3643,7 +3638,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C100" s="17">
@@ -3653,17 +3648,17 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F100" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C101" s="17" t="s">
@@ -3673,17 +3668,17 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F101" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F101" s="23"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C102" s="17">
@@ -3693,17 +3688,17 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F102" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F102" s="23"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C103" s="17">
@@ -3713,10 +3708,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F103" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F103" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3725,7 +3720,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C104" s="17">
@@ -3735,17 +3730,17 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F104" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -3755,17 +3750,17 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F105" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C106" s="17">
@@ -3775,17 +3770,17 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F106" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C107" s="17">
@@ -3795,10 +3790,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F107" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3807,7 +3802,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C108" s="17">
@@ -3817,17 +3812,17 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F108" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -3837,17 +3832,17 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F109" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C110" s="17">
@@ -3857,17 +3852,17 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F110" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C111" s="17">
@@ -3877,10 +3872,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <f t="shared" si="1"/>
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F111" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F111" s="23" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3889,7 +3884,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C112" s="17">
@@ -3899,17 +3894,17 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <f t="shared" si="1"/>
-        <v>0.82934999999999992</v>
-      </c>
-      <c r="F112" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3919,17 +3914,17 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8754249999999999</v>
-      </c>
-      <c r="F113" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C114" s="17">
@@ -3939,13 +3934,28 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <f t="shared" si="1"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F114" s="27"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F114" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3954,21 +3964,6 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,10 +466,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +478,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2066,7 +2069,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="1"/>
@@ -2089,7 +2092,7 @@
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2110,7 +2113,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2131,7 +2134,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2152,7 +2155,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2175,7 +2178,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2196,7 +2199,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2217,7 +2220,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2238,7 +2241,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2261,7 +2264,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2282,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2303,7 +2306,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2324,7 +2327,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2347,7 +2350,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2368,7 +2371,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2389,7 +2392,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2410,7 +2413,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2433,7 +2436,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2454,7 +2457,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2475,7 +2478,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="27"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2493,8 +2496,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="13">
-        <f>E3</f>
-        <v>0.8</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>61</v>
@@ -2516,8 +2518,7 @@
         <v>62</v>
       </c>
       <c r="E44" s="13">
-        <f t="shared" ref="E44:E62" si="1">E4</f>
-        <v>0.9</v>
+        <v>0.873</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -2537,8 +2538,7 @@
         <v>42</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="1"/>
@@ -2558,8 +2558,7 @@
         <v>81</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="1"/>
@@ -2578,9 +2577,8 @@
       <c r="D47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E47" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>64</v>
@@ -2601,9 +2599,8 @@
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E48" s="23">
+        <v>0.873</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="1"/>
@@ -2622,9 +2619,8 @@
       <c r="D49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E49" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="1"/>
@@ -2643,9 +2639,8 @@
       <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E50" s="23">
+        <v>0.97</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="1"/>
@@ -2664,9 +2659,8 @@
       <c r="D51" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E51" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>65</v>
@@ -2687,9 +2681,8 @@
       <c r="D52" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E52" s="23">
+        <v>0.873</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="1"/>
@@ -2708,9 +2701,8 @@
       <c r="D53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E53" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="1"/>
@@ -2729,9 +2721,8 @@
       <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E54" s="23">
+        <v>0.97</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="1"/>
@@ -2750,9 +2741,8 @@
       <c r="D55" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E55" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>67</v>
@@ -2773,9 +2763,8 @@
       <c r="D56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E56" s="23">
+        <v>0.873</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="1"/>
@@ -2794,9 +2783,8 @@
       <c r="D57" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E57" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="1"/>
@@ -2815,9 +2803,8 @@
       <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E58" s="23">
+        <v>0.97</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="1"/>
@@ -2836,9 +2823,8 @@
       <c r="D59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="E59" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>68</v>
@@ -2859,9 +2845,8 @@
       <c r="D60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="13">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="E60" s="23">
+        <v>0.873</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="1"/>
@@ -2880,9 +2865,8 @@
       <c r="D61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+      <c r="E61" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="1"/>
@@ -2901,9 +2885,8 @@
       <c r="D62" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E62" s="23">
+        <v>0.97</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="1"/>
@@ -2922,8 +2905,8 @@
       <c r="D63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="13">
-        <v>0.8</v>
+      <c r="E63" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>70</v>
@@ -2942,8 +2925,8 @@
       <c r="D64" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E64" s="13">
-        <v>0.9</v>
+      <c r="E64" s="23">
+        <v>0.873</v>
       </c>
       <c r="F64" s="25"/>
     </row>
@@ -2960,8 +2943,8 @@
       <c r="D65" s="12">
         <v>500000000</v>
       </c>
-      <c r="E65" s="13">
-        <v>0.95</v>
+      <c r="E65" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F65" s="25"/>
     </row>
@@ -2978,8 +2961,8 @@
       <c r="D66" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="13">
-        <v>1</v>
+      <c r="E66" s="23">
+        <v>0.97</v>
       </c>
       <c r="F66" s="25"/>
     </row>
@@ -2996,8 +2979,8 @@
       <c r="D67" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="13">
-        <v>0.8</v>
+      <c r="E67" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>72</v>
@@ -3016,8 +2999,8 @@
       <c r="D68" s="16">
         <v>1500000000</v>
       </c>
-      <c r="E68" s="13">
-        <v>0.9</v>
+      <c r="E68" s="23">
+        <v>0.873</v>
       </c>
       <c r="F68" s="25"/>
     </row>
@@ -3034,8 +3017,8 @@
       <c r="D69" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E69" s="13">
-        <v>0.95</v>
+      <c r="E69" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F69" s="25"/>
     </row>
@@ -3052,8 +3035,8 @@
       <c r="D70" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="13">
-        <v>1</v>
+      <c r="E70" s="23">
+        <v>0.97</v>
       </c>
       <c r="F70" s="25"/>
     </row>
@@ -3070,8 +3053,8 @@
       <c r="D71" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="13">
-        <v>0.8</v>
+      <c r="E71" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>74</v>
@@ -3090,8 +3073,8 @@
       <c r="D72" s="16">
         <v>2000000000</v>
       </c>
-      <c r="E72" s="13">
-        <v>0.9</v>
+      <c r="E72" s="23">
+        <v>0.873</v>
       </c>
       <c r="F72" s="25"/>
     </row>
@@ -3108,8 +3091,8 @@
       <c r="D73" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E73" s="13">
-        <v>0.95</v>
+      <c r="E73" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F73" s="25"/>
     </row>
@@ -3126,8 +3109,8 @@
       <c r="D74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="13">
-        <v>1</v>
+      <c r="E74" s="23">
+        <v>0.97</v>
       </c>
       <c r="F74" s="25"/>
     </row>
@@ -3144,8 +3127,8 @@
       <c r="D75" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="13">
-        <v>0.8</v>
+      <c r="E75" s="23">
+        <v>0.77600000000000002</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>75</v>
@@ -3164,8 +3147,8 @@
       <c r="D76" s="12">
         <v>3000000000</v>
       </c>
-      <c r="E76" s="13">
-        <v>0.9</v>
+      <c r="E76" s="23">
+        <v>0.873</v>
       </c>
       <c r="F76" s="25"/>
     </row>
@@ -3182,8 +3165,8 @@
       <c r="D77" s="12">
         <v>2000000000</v>
       </c>
-      <c r="E77" s="13">
-        <v>0.95</v>
+      <c r="E77" s="23">
+        <v>0.92149999999999999</v>
       </c>
       <c r="F77" s="25"/>
     </row>
@@ -3200,8 +3183,8 @@
       <c r="D78" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="13">
-        <v>1</v>
+      <c r="E78" s="23">
+        <v>0.97</v>
       </c>
       <c r="F78" s="25"/>
     </row>
@@ -3220,9 +3203,9 @@
       </c>
       <c r="E79" s="17">
         <f>E43*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F79" s="23" t="s">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F79" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3240,10 +3223,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <f t="shared" ref="E80:E114" si="2">E44*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F80" s="23"/>
+        <f t="shared" ref="E80:E114" si="1">E44*0.95</f>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3259,10 +3242,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F81" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3278,10 +3261,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F82" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3298,10 +3281,10 @@
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F83" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F83" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3320,10 +3303,10 @@
         <v>63</v>
       </c>
       <c r="E84" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F84" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3340,10 +3323,10 @@
         <v>41</v>
       </c>
       <c r="E85" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F85" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3360,17 +3343,17 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F86" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B114" si="3">B83+1</f>
+        <f t="shared" ref="B87:B114" si="2">B83+1</f>
         <v>23</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3380,10 +3363,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F87" s="24" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F87" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3392,7 +3375,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3402,17 +3385,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F88" s="24"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -3422,17 +3405,17 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F89" s="24"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F89" s="28"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C90" s="17">
@@ -3442,17 +3425,17 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F90" s="24"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F90" s="28"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C91" s="17">
@@ -3462,10 +3445,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F91" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3474,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C92" s="17">
@@ -3484,17 +3467,17 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F92" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C93" s="17">
@@ -3504,17 +3487,17 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F93" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -3524,17 +3507,17 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F94" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -3544,10 +3527,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F95" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F95" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3556,7 +3539,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -3566,17 +3549,17 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F96" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -3586,17 +3569,17 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F97" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C98" s="17">
@@ -3606,17 +3589,17 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F98" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C99" s="17">
@@ -3626,10 +3609,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F99" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F99" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3638,7 +3621,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C100" s="17">
@@ -3648,17 +3631,17 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F100" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C101" s="17" t="s">
@@ -3668,17 +3651,17 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F101" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C102" s="17">
@@ -3688,17 +3671,17 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F102" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C103" s="17">
@@ -3708,10 +3691,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F103" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F103" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3720,7 +3703,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C104" s="17">
@@ -3730,17 +3713,17 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F104" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -3750,17 +3733,17 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F105" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C106" s="17">
@@ -3770,17 +3753,17 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F106" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C107" s="17">
@@ -3790,10 +3773,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F107" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F107" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3802,7 +3785,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C108" s="17">
@@ -3812,17 +3795,17 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F108" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -3832,17 +3815,17 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F109" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C110" s="17">
@@ -3852,17 +3835,17 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F110" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C111" s="17">
@@ -3872,10 +3855,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="F111" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F111" s="27" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3884,7 +3867,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C112" s="17">
@@ -3894,17 +3877,17 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F112" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.82934999999999992</v>
+      </c>
+      <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3914,17 +3897,17 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <f t="shared" si="2"/>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F113" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.8754249999999999</v>
+      </c>
+      <c r="F113" s="27"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C114" s="17">
@@ -3934,28 +3917,13 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="F114" s="23"/>
+        <f t="shared" si="1"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F114" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3964,6 +3932,21 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,7 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,7 +1640,7 @@
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2093,7 +2096,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="25">
@@ -2118,7 +2121,7 @@
         <f>E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2139,7 +2142,7 @@
         <f>E5*0.85</f>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2160,7 +2163,7 @@
         <f>E6*0.85</f>
         <v>0.85</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2178,10 +2181,10 @@
         <v>39</v>
       </c>
       <c r="E27" s="24">
-        <f t="shared" ref="E27:E42" si="0">E7*0.85</f>
-        <v>0.68</v>
-      </c>
-      <c r="F27" s="30" t="s">
+        <f>E7*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2200,11 +2203,11 @@
       <c r="D28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="24">
-        <f t="shared" si="0"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="F28" s="30"/>
+      <c r="E28" s="26">
+        <f>E8*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F28" s="27"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2221,11 +2224,11 @@
       <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="24">
-        <f t="shared" si="0"/>
-        <v>0.8075</v>
-      </c>
-      <c r="F29" s="30"/>
+      <c r="E29" s="26">
+        <f>E9*0.95</f>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2242,11 +2245,11 @@
       <c r="D30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="24">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="F30" s="30"/>
+      <c r="E30" s="26">
+        <f>E10*0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2263,11 +2266,11 @@
       <c r="D31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="24">
-        <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="E31" s="26">
+        <f>E11*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2286,11 +2289,11 @@
       <c r="D32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="24">
-        <f t="shared" si="0"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="F32" s="30"/>
+      <c r="E32" s="26">
+        <f>E12*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2307,11 +2310,11 @@
       <c r="D33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="24">
-        <f t="shared" si="0"/>
-        <v>0.8075</v>
-      </c>
-      <c r="F33" s="30"/>
+      <c r="E33" s="26">
+        <f>E13*0.95</f>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2328,11 +2331,11 @@
       <c r="D34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="24">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="F34" s="30"/>
+      <c r="E34" s="26">
+        <f>E14*0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2349,11 +2352,11 @@
       <c r="D35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="24">
-        <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="26">
+        <f>E15*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2372,11 +2375,11 @@
       <c r="D36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="24">
-        <f t="shared" si="0"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="F36" s="30"/>
+      <c r="E36" s="26">
+        <f>E16*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2393,11 +2396,11 @@
       <c r="D37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="24">
-        <f t="shared" si="0"/>
-        <v>0.8075</v>
-      </c>
-      <c r="F37" s="30"/>
+      <c r="E37" s="26">
+        <f>E17*0.95</f>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2414,11 +2417,11 @@
       <c r="D38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="24">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="F38" s="30"/>
+      <c r="E38" s="26">
+        <f>E18*0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2435,11 +2438,11 @@
       <c r="D39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="24">
-        <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="26">
+        <f>E19*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F39" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2458,11 +2461,11 @@
       <c r="D40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="24">
-        <f t="shared" si="0"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="F40" s="30"/>
+      <c r="E40" s="26">
+        <f>E20*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2479,11 +2482,11 @@
       <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="24">
-        <f t="shared" si="0"/>
-        <v>0.8075</v>
-      </c>
-      <c r="F41" s="30"/>
+      <c r="E41" s="26">
+        <f>E21*0.95</f>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2500,11 +2503,11 @@
       <c r="D42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="24">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="F42" s="30"/>
+      <c r="E42" s="26">
+        <f>E22*0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -3228,10 +3231,10 @@
         <v>39</v>
       </c>
       <c r="E79" s="17">
-        <f t="shared" ref="E79:E98" si="1">E3*0.97</f>
+        <f t="shared" ref="E79:E98" si="0">E3*0.97</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3249,10 +3252,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F80" s="26"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3268,10 +3271,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F81" s="26"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3287,10 +3290,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F82" s="26"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3307,10 +3310,10 @@
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3329,10 +3332,10 @@
         <v>63</v>
       </c>
       <c r="E84" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F84" s="26"/>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3349,10 +3352,10 @@
         <v>41</v>
       </c>
       <c r="E85" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F85" s="26"/>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3369,17 +3372,17 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F86" s="26"/>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B114" si="2">B83+1</f>
+        <f t="shared" ref="B87:B114" si="1">B83+1</f>
         <v>23</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3389,10 +3392,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3401,7 +3404,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3411,17 +3414,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F88" s="27"/>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -3431,17 +3434,17 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F89" s="27"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C90" s="17">
@@ -3451,17 +3454,17 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F90" s="27"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C91" s="17">
@@ -3471,10 +3474,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F91" s="26" t="s">
+      <c r="F91" s="30" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3483,7 +3486,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C92" s="17">
@@ -3493,17 +3496,17 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F92" s="26"/>
+      <c r="F92" s="30"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C93" s="17">
@@ -3513,17 +3516,17 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F93" s="26"/>
+      <c r="F93" s="30"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -3533,17 +3536,17 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F94" s="26"/>
+      <c r="F94" s="30"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -3553,10 +3556,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="F95" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3565,7 +3568,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -3575,17 +3578,17 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F96" s="26"/>
+      <c r="F96" s="30"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -3595,17 +3598,17 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F97" s="26"/>
+      <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C98" s="17">
@@ -3615,17 +3618,17 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F98" s="26"/>
+      <c r="F98" s="30"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C99" s="17">
@@ -3635,10 +3638,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <f t="shared" ref="E99:E114" si="3">E3*0.97</f>
+        <f t="shared" ref="E99:E114" si="2">E3*0.97</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3647,7 +3650,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C100" s="17">
@@ -3657,17 +3660,17 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F100" s="26"/>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C101" s="17" t="s">
@@ -3677,17 +3680,17 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F101" s="26"/>
+      <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C102" s="17">
@@ -3697,17 +3700,17 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F102" s="26"/>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C103" s="17">
@@ -3717,10 +3720,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F103" s="26" t="s">
+      <c r="F103" s="30" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3729,7 +3732,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C104" s="17">
@@ -3739,17 +3742,17 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F104" s="26"/>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -3759,17 +3762,17 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F105" s="26"/>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C106" s="17">
@@ -3779,17 +3782,17 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F106" s="26"/>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C107" s="17">
@@ -3799,10 +3802,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F107" s="26" t="s">
+      <c r="F107" s="30" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3811,7 +3814,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C108" s="17">
@@ -3821,17 +3824,17 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F108" s="26"/>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -3841,17 +3844,17 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F109" s="26"/>
+      <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C110" s="17">
@@ -3861,17 +3864,17 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F110" s="26"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C111" s="17">
@@ -3881,10 +3884,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F111" s="26" t="s">
+      <c r="F111" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3893,7 +3896,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C112" s="17">
@@ -3903,17 +3906,17 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F112" s="26"/>
+      <c r="F112" s="30"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3923,17 +3926,17 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F113" s="26"/>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C114" s="17">
@@ -3943,28 +3946,13 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F114" s="26"/>
+      <c r="F114" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3973,6 +3961,21 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -495,7 +495,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,10 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2096,7 +2096,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="25">
@@ -2121,7 +2121,7 @@
         <f>E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2142,7 +2142,7 @@
         <f>E5*0.85</f>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2163,7 +2163,7 @@
         <f>E6*0.85</f>
         <v>0.85</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2180,11 +2180,11 @@
       <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="24">
-        <f>E7*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F27" s="27" t="s">
+      <c r="E27" s="26">
+        <f>E7*0.85</f>
+        <v>0.68</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2204,10 +2204,10 @@
         <v>45</v>
       </c>
       <c r="E28" s="26">
-        <f>E8*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F28" s="27"/>
+        <f>E8*0.85</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F28" s="31"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2225,10 +2225,10 @@
         <v>47</v>
       </c>
       <c r="E29" s="26">
-        <f>E9*0.95</f>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F29" s="27"/>
+        <f>E9*0.85</f>
+        <v>0.8075</v>
+      </c>
+      <c r="F29" s="31"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2246,10 +2246,10 @@
         <v>49</v>
       </c>
       <c r="E30" s="26">
-        <f>E10*0.95</f>
-        <v>0.95</v>
-      </c>
-      <c r="F30" s="27"/>
+        <f>E10*0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="F30" s="31"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2267,10 +2267,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="26">
-        <f>E11*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F31" s="27" t="s">
+        <f>E11*0.85</f>
+        <v>0.68</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2290,10 +2290,10 @@
         <v>53</v>
       </c>
       <c r="E32" s="26">
-        <f>E12*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F32" s="27"/>
+        <f>E12*0.85</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F32" s="31"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2311,10 +2311,10 @@
         <v>54</v>
       </c>
       <c r="E33" s="26">
-        <f>E13*0.95</f>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F33" s="27"/>
+        <f>E13*0.85</f>
+        <v>0.8075</v>
+      </c>
+      <c r="F33" s="31"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2332,10 +2332,10 @@
         <v>55</v>
       </c>
       <c r="E34" s="26">
-        <f>E14*0.95</f>
-        <v>0.95</v>
-      </c>
-      <c r="F34" s="27"/>
+        <f>E14*0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="F34" s="31"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2353,10 +2353,10 @@
         <v>39</v>
       </c>
       <c r="E35" s="26">
-        <f>E15*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F35" s="27" t="s">
+        <f>E15*0.85</f>
+        <v>0.68</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2376,10 +2376,10 @@
         <v>57</v>
       </c>
       <c r="E36" s="26">
-        <f>E16*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F36" s="27"/>
+        <f>E16*0.85</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F36" s="31"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2397,10 +2397,10 @@
         <v>45</v>
       </c>
       <c r="E37" s="26">
-        <f>E17*0.95</f>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F37" s="27"/>
+        <f>E17*0.85</f>
+        <v>0.8075</v>
+      </c>
+      <c r="F37" s="31"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2418,10 +2418,10 @@
         <v>58</v>
       </c>
       <c r="E38" s="26">
-        <f>E18*0.95</f>
-        <v>0.95</v>
-      </c>
-      <c r="F38" s="27"/>
+        <f>E18*0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="F38" s="31"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2439,10 +2439,10 @@
         <v>39</v>
       </c>
       <c r="E39" s="26">
-        <f>E19*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="F39" s="27" t="s">
+        <f>E19*0.85</f>
+        <v>0.68</v>
+      </c>
+      <c r="F39" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2462,10 +2462,10 @@
         <v>57</v>
       </c>
       <c r="E40" s="26">
-        <f>E20*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F40" s="27"/>
+        <f>E20*0.85</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F40" s="31"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>53</v>
       </c>
       <c r="E41" s="26">
-        <f>E21*0.95</f>
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="F41" s="27"/>
+        <f>E21*0.85</f>
+        <v>0.8075</v>
+      </c>
+      <c r="F41" s="31"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2504,10 +2504,10 @@
         <v>60</v>
       </c>
       <c r="E42" s="26">
-        <f>E22*0.95</f>
-        <v>0.95</v>
-      </c>
-      <c r="F42" s="27"/>
+        <f>E22*0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="F42" s="31"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="E43" s="13">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="29" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="1"/>
@@ -2549,7 +2549,7 @@
       <c r="E44" s="13">
         <v>0.873</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2569,7 +2569,7 @@
       <c r="E45" s="13">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2589,7 +2589,7 @@
       <c r="E46" s="13">
         <v>0.97</v>
       </c>
-      <c r="F46" s="28"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="E47" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="29" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="1"/>
@@ -2631,7 +2631,7 @@
       <c r="E48" s="23">
         <v>0.873</v>
       </c>
-      <c r="F48" s="28"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2651,7 +2651,7 @@
       <c r="E49" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F49" s="28"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -2671,7 +2671,7 @@
       <c r="E50" s="23">
         <v>0.97</v>
       </c>
-      <c r="F50" s="28"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="E51" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="1"/>
@@ -2713,7 +2713,7 @@
       <c r="E52" s="23">
         <v>0.873</v>
       </c>
-      <c r="F52" s="29"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -2733,7 +2733,7 @@
       <c r="E53" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F53" s="29"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -2753,7 +2753,7 @@
       <c r="E54" s="23">
         <v>0.97</v>
       </c>
-      <c r="F54" s="29"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -2773,7 +2773,7 @@
       <c r="E55" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="29" t="s">
         <v>67</v>
       </c>
       <c r="G55" s="1"/>
@@ -2795,7 +2795,7 @@
       <c r="E56" s="23">
         <v>0.873</v>
       </c>
-      <c r="F56" s="28"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="E57" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F57" s="28"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2835,7 +2835,7 @@
       <c r="E58" s="23">
         <v>0.97</v>
       </c>
-      <c r="F58" s="28"/>
+      <c r="F58" s="29"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="E59" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="E60" s="23">
         <v>0.873</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="29"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2897,7 +2897,7 @@
       <c r="E61" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="29"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2917,7 +2917,7 @@
       <c r="E62" s="23">
         <v>0.97</v>
       </c>
-      <c r="F62" s="28"/>
+      <c r="F62" s="29"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="E63" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="29" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       <c r="E64" s="23">
         <v>0.873</v>
       </c>
-      <c r="F64" s="28"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
@@ -2975,7 +2975,7 @@
       <c r="E65" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F65" s="28"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
@@ -2993,7 +2993,7 @@
       <c r="E66" s="23">
         <v>0.97</v>
       </c>
-      <c r="F66" s="28"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
@@ -3011,7 +3011,7 @@
       <c r="E67" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="29" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       <c r="E68" s="23">
         <v>0.873</v>
       </c>
-      <c r="F68" s="28"/>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
@@ -3049,7 +3049,7 @@
       <c r="E69" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F69" s="28"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
@@ -3067,7 +3067,7 @@
       <c r="E70" s="23">
         <v>0.97</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
@@ -3085,7 +3085,7 @@
       <c r="E71" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="29" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       <c r="E72" s="23">
         <v>0.873</v>
       </c>
-      <c r="F72" s="28"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
@@ -3123,7 +3123,7 @@
       <c r="E73" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F73" s="28"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
@@ -3141,7 +3141,7 @@
       <c r="E74" s="23">
         <v>0.97</v>
       </c>
-      <c r="F74" s="28"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
@@ -3159,7 +3159,7 @@
       <c r="E75" s="23">
         <v>0.77600000000000002</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="29" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="E76" s="23">
         <v>0.873</v>
       </c>
-      <c r="F76" s="28"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
@@ -3197,7 +3197,7 @@
       <c r="E77" s="23">
         <v>0.92149999999999999</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
@@ -3215,7 +3215,7 @@
       <c r="E78" s="23">
         <v>0.97</v>
       </c>
-      <c r="F78" s="28"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
@@ -3234,7 +3234,7 @@
         <f t="shared" ref="E79:E98" si="0">E3*0.97</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
         <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F80" s="30"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3274,7 +3274,7 @@
         <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F81" s="30"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3293,7 +3293,7 @@
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F82" s="30"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3313,7 +3313,7 @@
         <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
         <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F84" s="30"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3355,7 +3355,7 @@
         <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F85" s="30"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3375,7 +3375,7 @@
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F86" s="30"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
@@ -3395,7 +3395,7 @@
         <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F88" s="31"/>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
@@ -3437,7 +3437,7 @@
         <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F89" s="31"/>
+      <c r="F89" s="28"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
@@ -3457,7 +3457,7 @@
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F90" s="31"/>
+      <c r="F90" s="28"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
@@ -3477,7 +3477,7 @@
         <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
         <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F92" s="30"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
@@ -3519,7 +3519,7 @@
         <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F93" s="30"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
@@ -3539,7 +3539,7 @@
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F94" s="30"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
@@ -3559,7 +3559,7 @@
         <f t="shared" si="0"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
         <f t="shared" si="0"/>
         <v>0.873</v>
       </c>
-      <c r="F96" s="30"/>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
@@ -3601,7 +3601,7 @@
         <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F97" s="30"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
@@ -3621,7 +3621,7 @@
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="F98" s="30"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
@@ -3641,7 +3641,7 @@
         <f t="shared" ref="E99:E114" si="2">E3*0.97</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
         <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F100" s="30"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
@@ -3683,7 +3683,7 @@
         <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F101" s="30"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
@@ -3703,7 +3703,7 @@
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F102" s="30"/>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
@@ -3723,7 +3723,7 @@
         <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
         <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F104" s="30"/>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
@@ -3765,7 +3765,7 @@
         <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F105" s="30"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
@@ -3785,7 +3785,7 @@
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F106" s="30"/>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
@@ -3805,7 +3805,7 @@
         <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
         <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F108" s="30"/>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
@@ -3847,7 +3847,7 @@
         <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F109" s="30"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
@@ -3867,7 +3867,7 @@
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
@@ -3887,7 +3887,7 @@
         <f t="shared" si="2"/>
         <v>0.77600000000000002</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="27" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
         <f t="shared" si="2"/>
         <v>0.873</v>
       </c>
-      <c r="F112" s="30"/>
+      <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
@@ -3929,7 +3929,7 @@
         <f t="shared" si="2"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="F113" s="30"/>
+      <c r="F113" s="27"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
@@ -3949,10 +3949,25 @@
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F114" s="30"/>
+      <c r="F114" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3961,21 +3976,6 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/auto_control_system_server.xlsx
+++ b/config_Release/auto_control_system_server.xlsx
@@ -483,9 +483,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,10 +492,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,7 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,7 +985,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E12"/>
+      <selection activeCell="B22" sqref="B22:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1639,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2093,13 +2093,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="9">
-        <f>E3*0.85</f>
+        <f t="shared" ref="E23:E42" si="0">E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>0.85</v>
       </c>
       <c r="H23" s="1"/>
@@ -2117,11 +2117,11 @@
       <c r="D24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="24">
-        <f>E4*0.85</f>
+      <c r="E24" s="23">
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -2138,11 +2138,11 @@
       <c r="D25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="24">
-        <f>E5*0.85</f>
+      <c r="E25" s="23">
+        <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2159,11 +2159,11 @@
       <c r="D26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="24">
-        <f>E6*0.85</f>
+      <c r="E26" s="23">
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2180,11 +2180,11 @@
       <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="26">
-        <f>E7*0.85</f>
+      <c r="E27" s="25">
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2203,11 +2203,11 @@
       <c r="D28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="26">
-        <f>E8*0.85</f>
+      <c r="E28" s="25">
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2224,11 +2224,11 @@
       <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="26">
-        <f>E9*0.85</f>
+      <c r="E29" s="25">
+        <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2245,11 +2245,11 @@
       <c r="D30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="26">
-        <f>E10*0.85</f>
+      <c r="E30" s="25">
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2266,11 +2266,11 @@
       <c r="D31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="26">
-        <f>E11*0.85</f>
+      <c r="E31" s="25">
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2289,11 +2289,11 @@
       <c r="D32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="26">
-        <f>E12*0.85</f>
+      <c r="E32" s="25">
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2310,11 +2310,11 @@
       <c r="D33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="26">
-        <f>E13*0.85</f>
+      <c r="E33" s="25">
+        <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2331,11 +2331,11 @@
       <c r="D34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="26">
-        <f>E14*0.85</f>
+      <c r="E34" s="25">
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2352,11 +2352,11 @@
       <c r="D35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="26">
-        <f>E15*0.85</f>
+      <c r="E35" s="25">
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2375,11 +2375,11 @@
       <c r="D36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="26">
-        <f>E16*0.85</f>
+      <c r="E36" s="25">
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2396,11 +2396,11 @@
       <c r="D37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="26">
-        <f>E17*0.85</f>
+      <c r="E37" s="25">
+        <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2417,11 +2417,11 @@
       <c r="D38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="26">
-        <f>E18*0.85</f>
+      <c r="E38" s="25">
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2438,11 +2438,11 @@
       <c r="D39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="26">
-        <f>E19*0.85</f>
+      <c r="E39" s="25">
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2461,11 +2461,11 @@
       <c r="D40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="26">
-        <f>E20*0.85</f>
+      <c r="E40" s="25">
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2482,11 +2482,11 @@
       <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="26">
-        <f>E21*0.85</f>
+      <c r="E41" s="25">
+        <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="31"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2503,11 +2503,11 @@
       <c r="D42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="26">
-        <f>E22*0.85</f>
+      <c r="E42" s="25">
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2525,9 +2525,10 @@
         <v>39</v>
       </c>
       <c r="E43" s="13">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F43" s="29" t="s">
+        <f>E3*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F43" s="28" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="1"/>
@@ -2546,10 +2547,11 @@
       <c r="D44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="13">
-        <v>0.873</v>
-      </c>
-      <c r="F44" s="29"/>
+      <c r="E44" s="26">
+        <f>E4*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F44" s="28"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2566,10 +2568,11 @@
       <c r="D45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="13">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F45" s="29"/>
+      <c r="E45" s="26">
+        <f>E5*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F45" s="28"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2586,10 +2589,11 @@
       <c r="D46" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="F46" s="29"/>
+      <c r="E46" s="26">
+        <f>E6*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F46" s="28"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2606,10 +2610,11 @@
       <c r="D47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F47" s="29" t="s">
+      <c r="E47" s="26">
+        <f>E7*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F47" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="1"/>
@@ -2628,10 +2633,11 @@
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F48" s="29"/>
+      <c r="E48" s="26">
+        <f>E8*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F48" s="28"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2648,10 +2654,11 @@
       <c r="D49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F49" s="29"/>
+      <c r="E49" s="26">
+        <f>E9*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F49" s="28"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -2668,10 +2675,11 @@
       <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F50" s="29"/>
+      <c r="E50" s="26">
+        <f>E10*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F50" s="28"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2688,10 +2696,11 @@
       <c r="D51" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F51" s="30" t="s">
+      <c r="E51" s="26">
+        <f>E11*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="1"/>
@@ -2710,10 +2719,11 @@
       <c r="D52" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F52" s="30"/>
+      <c r="E52" s="26">
+        <f>E12*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F52" s="29"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -2730,10 +2740,11 @@
       <c r="D53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F53" s="30"/>
+      <c r="E53" s="26">
+        <f>E13*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F53" s="29"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -2750,10 +2761,11 @@
       <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F54" s="30"/>
+      <c r="E54" s="26">
+        <f>E14*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F54" s="29"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -2770,10 +2782,11 @@
       <c r="D55" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F55" s="29" t="s">
+      <c r="E55" s="26">
+        <f>E15*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G55" s="1"/>
@@ -2792,10 +2805,11 @@
       <c r="D56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F56" s="29"/>
+      <c r="E56" s="26">
+        <f>E16*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F56" s="28"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2812,10 +2826,11 @@
       <c r="D57" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F57" s="29"/>
+      <c r="E57" s="26">
+        <f>E17*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F57" s="28"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2832,10 +2847,11 @@
       <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F58" s="29"/>
+      <c r="E58" s="26">
+        <f>E18*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F58" s="28"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2852,10 +2868,11 @@
       <c r="D59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F59" s="29" t="s">
+      <c r="E59" s="26">
+        <f>E19*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F59" s="28" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="1"/>
@@ -2874,10 +2891,11 @@
       <c r="D60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F60" s="29"/>
+      <c r="E60" s="26">
+        <f>E20*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F60" s="28"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2894,10 +2912,11 @@
       <c r="D61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F61" s="29"/>
+      <c r="E61" s="26">
+        <f>E21*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F61" s="28"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2914,10 +2933,11 @@
       <c r="D62" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F62" s="29"/>
+      <c r="E62" s="26">
+        <f>E22*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F62" s="28"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2934,10 +2954,11 @@
       <c r="D63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F63" s="29" t="s">
+      <c r="E63" s="26">
+        <f>E3*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F63" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2954,10 +2975,11 @@
       <c r="D64" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E64" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F64" s="29"/>
+      <c r="E64" s="26">
+        <f>E4*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
@@ -2972,10 +2994,11 @@
       <c r="D65" s="12">
         <v>500000000</v>
       </c>
-      <c r="E65" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F65" s="29"/>
+      <c r="E65" s="26">
+        <f>E5*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
@@ -2990,10 +3013,11 @@
       <c r="D66" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F66" s="29"/>
+      <c r="E66" s="26">
+        <f>E6*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
@@ -3008,10 +3032,11 @@
       <c r="D67" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F67" s="29" t="s">
+      <c r="E67" s="26">
+        <f>E7*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F67" s="28" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3028,10 +3053,11 @@
       <c r="D68" s="16">
         <v>1500000000</v>
       </c>
-      <c r="E68" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F68" s="29"/>
+      <c r="E68" s="26">
+        <f>E8*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F68" s="28"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
@@ -3046,10 +3072,11 @@
       <c r="D69" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E69" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F69" s="29"/>
+      <c r="E69" s="26">
+        <f>E9*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F69" s="28"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
@@ -3064,10 +3091,11 @@
       <c r="D70" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F70" s="29"/>
+      <c r="E70" s="26">
+        <f>E10*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F70" s="28"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
@@ -3082,10 +3110,11 @@
       <c r="D71" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F71" s="29" t="s">
+      <c r="E71" s="26">
+        <f>E11*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F71" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3102,10 +3131,11 @@
       <c r="D72" s="16">
         <v>2000000000</v>
       </c>
-      <c r="E72" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F72" s="29"/>
+      <c r="E72" s="26">
+        <f>E12*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F72" s="28"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
@@ -3120,10 +3150,11 @@
       <c r="D73" s="12">
         <v>1000000000</v>
       </c>
-      <c r="E73" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F73" s="29"/>
+      <c r="E73" s="26">
+        <f>E13*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F73" s="28"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
@@ -3138,10 +3169,11 @@
       <c r="D74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F74" s="29"/>
+      <c r="E74" s="26">
+        <f>E14*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F74" s="28"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
@@ -3156,10 +3188,11 @@
       <c r="D75" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="23">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F75" s="29" t="s">
+      <c r="E75" s="26">
+        <f>E15*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F75" s="28" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3176,10 +3209,11 @@
       <c r="D76" s="12">
         <v>3000000000</v>
       </c>
-      <c r="E76" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="F76" s="29"/>
+      <c r="E76" s="26">
+        <f>E16*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F76" s="28"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
@@ -3194,10 +3228,11 @@
       <c r="D77" s="12">
         <v>2000000000</v>
       </c>
-      <c r="E77" s="23">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F77" s="29"/>
+      <c r="E77" s="26">
+        <f>E17*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F77" s="28"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
@@ -3212,10 +3247,11 @@
       <c r="D78" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="F78" s="29"/>
+      <c r="E78" s="26">
+        <f>E18*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F78" s="28"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
@@ -3231,10 +3267,10 @@
         <v>39</v>
       </c>
       <c r="E79" s="17">
-        <f t="shared" ref="E79:E98" si="0">E3*0.97</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F79" s="27" t="s">
+        <f>E3*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F79" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3252,10 +3288,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <f t="shared" si="0"/>
-        <v>0.873</v>
-      </c>
-      <c r="F80" s="27"/>
+        <f>E4*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3271,10 +3307,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <f t="shared" si="0"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F81" s="27"/>
+        <f>E5*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3290,10 +3326,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="F82" s="27"/>
+        <f>E6*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3310,10 +3346,10 @@
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F83" s="27" t="s">
+        <f>E7*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F83" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3332,10 +3368,10 @@
         <v>63</v>
       </c>
       <c r="E84" s="17">
-        <f t="shared" si="0"/>
-        <v>0.873</v>
-      </c>
-      <c r="F84" s="27"/>
+        <f>E8*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3352,10 +3388,10 @@
         <v>41</v>
       </c>
       <c r="E85" s="17">
-        <f t="shared" si="0"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F85" s="27"/>
+        <f>E9*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3372,10 +3408,10 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="F86" s="27"/>
+        <f>E10*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
@@ -3392,10 +3428,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F87" s="28" t="s">
+        <f>E11*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F87" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3414,10 +3450,10 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <f t="shared" si="0"/>
-        <v>0.873</v>
-      </c>
-      <c r="F88" s="28"/>
+        <f>E12*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
@@ -3434,10 +3470,10 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <f t="shared" si="0"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F89" s="28"/>
+        <f>E13*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
@@ -3454,10 +3490,10 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="F90" s="28"/>
+        <f>E14*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
@@ -3474,10 +3510,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F91" s="27" t="s">
+        <f>E15*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F91" s="30" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3496,10 +3532,10 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <f t="shared" si="0"/>
-        <v>0.873</v>
-      </c>
-      <c r="F92" s="27"/>
+        <f>E16*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F92" s="30"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
@@ -3516,10 +3552,10 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <f t="shared" si="0"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F93" s="27"/>
+        <f>E17*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F93" s="30"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
@@ -3536,10 +3572,10 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="F94" s="27"/>
+        <f>E18*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F94" s="30"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
@@ -3556,10 +3592,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F95" s="27" t="s">
+        <f>E19*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F95" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3578,10 +3614,10 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <f t="shared" si="0"/>
-        <v>0.873</v>
-      </c>
-      <c r="F96" s="27"/>
+        <f>E20*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F96" s="30"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
@@ -3598,10 +3634,10 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <f t="shared" si="0"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F97" s="27"/>
+        <f>E21*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
@@ -3618,10 +3654,10 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="F98" s="27"/>
+        <f>E22*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F98" s="30"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
@@ -3638,10 +3674,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <f t="shared" ref="E99:E114" si="2">E3*0.97</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F99" s="27" t="s">
+        <f>E3*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F99" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3660,10 +3696,10 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <f t="shared" si="2"/>
-        <v>0.873</v>
-      </c>
-      <c r="F100" s="27"/>
+        <f>E4*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
@@ -3680,10 +3716,10 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <f t="shared" si="2"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F101" s="27"/>
+        <f>E5*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
@@ -3700,10 +3736,10 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="F102" s="27"/>
+        <f>E6*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
@@ -3720,10 +3756,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <f t="shared" si="2"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F103" s="27" t="s">
+        <f>E7*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F103" s="30" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3742,10 +3778,10 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <f t="shared" si="2"/>
-        <v>0.873</v>
-      </c>
-      <c r="F104" s="27"/>
+        <f>E8*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
@@ -3762,10 +3798,10 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <f t="shared" si="2"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F105" s="27"/>
+        <f>E9*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
@@ -3782,10 +3818,10 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="F106" s="27"/>
+        <f>E10*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
@@ -3802,10 +3838,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <f t="shared" si="2"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F107" s="27" t="s">
+        <f>E11*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F107" s="30" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3824,10 +3860,10 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <f t="shared" si="2"/>
-        <v>0.873</v>
-      </c>
-      <c r="F108" s="27"/>
+        <f>E12*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
@@ -3844,10 +3880,10 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <f t="shared" si="2"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F109" s="27"/>
+        <f>E13*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
@@ -3864,10 +3900,10 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="F110" s="27"/>
+        <f>E14*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
@@ -3884,10 +3920,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <f t="shared" si="2"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F111" s="27" t="s">
+        <f>E15*0.93</f>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="F111" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3906,10 +3942,10 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <f t="shared" si="2"/>
-        <v>0.873</v>
-      </c>
-      <c r="F112" s="27"/>
+        <f>E16*0.93</f>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F112" s="30"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
@@ -3926,10 +3962,10 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <f t="shared" si="2"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="F113" s="27"/>
+        <f>E17*0.93</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
@@ -3946,28 +3982,13 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="F114" s="27"/>
+        <f>E18*0.93</f>
+        <v>0.93</v>
+      </c>
+      <c r="F114" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3976,6 +3997,21 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
